--- a/apps/load_data/2023/07/PLMOVMAE.xlsx
+++ b/apps/load_data/2023/07/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2023\HHY0723\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\HHY0723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3409A7E8-BC1C-4BFA-96A8-347BD7D0C465}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDCF54F-5C73-4BE8-A71F-76A41966B997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CJ$285</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CJ$285</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12102" uniqueCount="3578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12083" uniqueCount="3575">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7393,9 +7394,6 @@
     <t>0082A         1</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8635,9 +8633,6 @@
     <t>0136A         1</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8954,9 +8949,6 @@
   </si>
   <si>
     <t>0111A         1</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10762,7 +10754,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -11602,10 +11594,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD170" sqref="AC170:AD240"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -43167,12 +43161,7 @@
       <c r="AB170" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC170" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD170" s="1" t="s">
-        <v>2456</v>
-      </c>
+      <c r="AC170" s="3"/>
       <c r="AF170" s="1" t="s">
         <v>107</v>
       </c>
@@ -43225,16 +43214,16 @@
         <v>23</v>
       </c>
       <c r="BD170" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BG170" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH170" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="BI170" s="1" t="s">
         <v>2458</v>
-      </c>
-      <c r="BI170" s="1" t="s">
-        <v>2459</v>
       </c>
       <c r="BN170" s="1" t="s">
         <v>118</v>
@@ -43249,13 +43238,13 @@
         <v>163</v>
       </c>
       <c r="BS170" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BT170" s="3">
         <v>36225</v>
       </c>
       <c r="BU170" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BV170" s="1" t="s">
         <v>122</v>
@@ -43276,19 +43265,19 @@
         <v>112</v>
       </c>
       <c r="CD170" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="CE170" s="1" t="s">
         <v>2462</v>
       </c>
-      <c r="CE170" s="1" t="s">
+      <c r="CF170" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="CF170" s="1" t="s">
+      <c r="CH170" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="CH170" s="1" t="s">
+      <c r="CI170" s="1" t="s">
         <v>2465</v>
-      </c>
-      <c r="CI170" s="1" t="s">
-        <v>2466</v>
       </c>
       <c r="CJ170" s="1" t="s">
         <v>130</v>
@@ -43320,16 +43309,16 @@
         <v>95</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K171" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="L171" s="1" t="s">
         <v>2468</v>
-      </c>
-      <c r="L171" s="1" t="s">
-        <v>2469</v>
       </c>
       <c r="O171" s="1" t="s">
         <v>101</v>
@@ -43352,12 +43341,7 @@
       <c r="AB171" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="AC171" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>2456</v>
-      </c>
+      <c r="AC171" s="3"/>
       <c r="AF171" s="1" t="s">
         <v>107</v>
       </c>
@@ -43404,7 +43388,7 @@
         <v>112</v>
       </c>
       <c r="AZ171" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BB171" s="1">
         <v>5</v>
@@ -43413,7 +43397,7 @@
         <v>22</v>
       </c>
       <c r="BD171" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BN171" s="1" t="s">
         <v>118</v>
@@ -43440,7 +43424,7 @@
         <v>111</v>
       </c>
       <c r="CA171" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="CB171" s="1" t="s">
         <v>124</v>
@@ -43449,10 +43433,10 @@
         <v>112</v>
       </c>
       <c r="CD171" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="CH171" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="CI171" s="1" t="s">
         <v>130</v>
@@ -43493,19 +43477,19 @@
         <v>97</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="L172" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>2476</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P172" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="Q172" s="3">
         <v>27018</v>
@@ -43528,12 +43512,7 @@
       <c r="AA172" s="1">
         <v>0</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2456</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>107</v>
       </c>
@@ -43583,7 +43562,7 @@
         <v>112</v>
       </c>
       <c r="AZ172" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BB172" s="1">
         <v>7</v>
@@ -43592,13 +43571,13 @@
         <v>23</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH172" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="BI172" s="1" t="s">
         <v>983</v>
@@ -43610,7 +43589,7 @@
         <v>106</v>
       </c>
       <c r="BU172" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BV172" s="1" t="s">
         <v>122</v>
@@ -43628,16 +43607,16 @@
         <v>112</v>
       </c>
       <c r="CD172" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="CE172" s="1" t="s">
         <v>1307</v>
       </c>
       <c r="CF172" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="CH172" s="1" t="s">
         <v>2483</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2484</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>989</v>
@@ -43678,19 +43657,19 @@
         <v>97</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="N173" s="1" t="s">
         <v>2486</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>2487</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="Q173" s="3">
         <v>29037</v>
@@ -43716,12 +43695,7 @@
       <c r="AB173" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2456</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>107</v>
       </c>
@@ -43771,7 +43745,7 @@
         <v>112</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BB173" s="1">
         <v>7</v>
@@ -43780,13 +43754,13 @@
         <v>23</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH173" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="BI173" s="1" t="s">
         <v>880</v>
@@ -43798,7 +43772,7 @@
         <v>106</v>
       </c>
       <c r="BU173" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BV173" s="1" t="s">
         <v>122</v>
@@ -43819,13 +43793,13 @@
         <v>706</v>
       </c>
       <c r="CE173" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="CF173" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="CF173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2495</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>885</v>
@@ -43866,19 +43840,19 @@
         <v>97</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2496</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2497</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2498</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="Q174" s="3">
         <v>26647</v>
@@ -43901,12 +43875,7 @@
       <c r="AA174" s="1">
         <v>0</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2456</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>107</v>
       </c>
@@ -43956,7 +43925,7 @@
         <v>112</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BB174" s="1">
         <v>7</v>
@@ -43965,13 +43934,13 @@
         <v>23</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BI174" s="1" t="s">
         <v>602</v>
@@ -43983,7 +43952,7 @@
         <v>106</v>
       </c>
       <c r="BU174" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BV174" s="1" t="s">
         <v>122</v>
@@ -44001,16 +43970,16 @@
         <v>112</v>
       </c>
       <c r="CD174" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="CE174" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="CF174" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="CE174" s="1" t="s">
-        <v>2504</v>
-      </c>
-      <c r="CF174" s="1" t="s">
+      <c r="CH174" s="1" t="s">
         <v>2505</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2506</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>609</v>
@@ -44051,19 +44020,19 @@
         <v>97</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2507</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="Q175" s="3">
         <v>25405</v>
@@ -44095,12 +44064,7 @@
       <c r="AB175" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2456</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>107</v>
       </c>
@@ -44147,7 +44111,7 @@
         <v>112</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BB175" s="1">
         <v>7</v>
@@ -44156,13 +44120,13 @@
         <v>23</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BI175" s="1" t="s">
         <v>434</v>
@@ -44177,13 +44141,13 @@
         <v>119</v>
       </c>
       <c r="BS175" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BT175" s="3">
         <v>35243</v>
       </c>
       <c r="BU175" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BV175" s="1" t="s">
         <v>122</v>
@@ -44201,16 +44165,16 @@
         <v>112</v>
       </c>
       <c r="CD175" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="CE175" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="CE175" s="1" t="s">
+      <c r="CF175" s="1" t="s">
         <v>2517</v>
       </c>
-      <c r="CF175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2518</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2519</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>441</v>
@@ -44251,19 +44215,19 @@
         <v>97</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2521</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2522</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="Q176" s="3">
         <v>28845</v>
@@ -44286,12 +44250,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2456</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>107</v>
       </c>
@@ -44341,7 +44300,7 @@
         <v>112</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BB176" s="1">
         <v>7</v>
@@ -44350,13 +44309,13 @@
         <v>23</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BI176" s="1" t="s">
         <v>2417</v>
@@ -44368,7 +44327,7 @@
         <v>106</v>
       </c>
       <c r="BU176" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BV176" s="1" t="s">
         <v>122</v>
@@ -44386,16 +44345,16 @@
         <v>112</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="CE176" s="1" t="s">
         <v>2528</v>
       </c>
-      <c r="CE176" s="1" t="s">
+      <c r="CF176" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="CF176" s="1" t="s">
+      <c r="CH176" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="CH176" s="1" t="s">
-        <v>2531</v>
       </c>
       <c r="CI176" s="1" t="s">
         <v>2422</v>
@@ -44436,19 +44395,19 @@
         <v>97</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2534</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="Q177" s="3">
         <v>21425</v>
@@ -44471,12 +44430,7 @@
       <c r="AA177" s="1">
         <v>0</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2456</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>107</v>
       </c>
@@ -44526,7 +44480,7 @@
         <v>112</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="BB177" s="1">
         <v>7</v>
@@ -44535,13 +44489,13 @@
         <v>23</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>602</v>
@@ -44556,7 +44510,7 @@
         <v>163</v>
       </c>
       <c r="BU177" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BV177" s="1" t="s">
         <v>122</v>
@@ -44574,16 +44528,16 @@
         <v>112</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2540</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CF177" s="1" t="s">
         <v>2541</v>
       </c>
-      <c r="CF177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2542</v>
-      </c>
-      <c r="CH177" s="1" t="s">
-        <v>2543</v>
       </c>
       <c r="CI177" s="1" t="s">
         <v>609</v>
@@ -44618,25 +44572,25 @@
         <v>95</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2546</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2547</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="Q178" s="3">
         <v>23286</v>
@@ -44665,12 +44619,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2456</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>107</v>
       </c>
@@ -44720,7 +44669,7 @@
         <v>112</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="BB178" s="1">
         <v>7</v>
@@ -44729,13 +44678,13 @@
         <v>23</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BN178" s="1" t="s">
         <v>118</v>
@@ -44744,7 +44693,7 @@
         <v>106</v>
       </c>
       <c r="BU178" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BV178" s="1" t="s">
         <v>122</v>
@@ -44756,7 +44705,7 @@
         <v>111</v>
       </c>
       <c r="CA178" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="CB178" s="1" t="s">
         <v>124</v>
@@ -44765,16 +44714,16 @@
         <v>112</v>
       </c>
       <c r="CD178" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2554</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CF178" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="CF178" s="1" t="s">
+      <c r="CH178" s="1" t="s">
         <v>2556</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2557</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>130</v>
@@ -44815,19 +44764,19 @@
         <v>97</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2558</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2559</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2560</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="Q179" s="3">
         <v>26907</v>
@@ -44850,12 +44799,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2456</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>107</v>
       </c>
@@ -44902,7 +44846,7 @@
         <v>112</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="BB179" s="1">
         <v>7</v>
@@ -44911,16 +44855,16 @@
         <v>23</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH179" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="BI179" s="1" t="s">
         <v>2564</v>
-      </c>
-      <c r="BI179" s="1" t="s">
-        <v>2565</v>
       </c>
       <c r="BN179" s="1" t="s">
         <v>118</v>
@@ -44932,13 +44876,13 @@
         <v>119</v>
       </c>
       <c r="BS179" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BT179" s="3">
         <v>35950</v>
       </c>
       <c r="BU179" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BV179" s="1" t="s">
         <v>122</v>
@@ -44956,19 +44900,19 @@
         <v>112</v>
       </c>
       <c r="CD179" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="CE179" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="CF179" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="CH179" s="1" t="s">
         <v>2569</v>
       </c>
-      <c r="CH179" s="1" t="s">
+      <c r="CI179" s="1" t="s">
         <v>2570</v>
-      </c>
-      <c r="CI179" s="1" t="s">
-        <v>2571</v>
       </c>
       <c r="CJ179" s="1" t="s">
         <v>130</v>
@@ -45006,19 +44950,19 @@
         <v>97</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2572</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2573</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2574</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="Q180" s="3">
         <v>28642</v>
@@ -45093,7 +45037,7 @@
         <v>112</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="BB180" s="1">
         <v>7</v>
@@ -45102,13 +45046,13 @@
         <v>23</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="BN180" s="1" t="s">
         <v>118</v>
@@ -45120,7 +45064,7 @@
         <v>163</v>
       </c>
       <c r="BU180" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BV180" s="1" t="s">
         <v>122</v>
@@ -45138,16 +45082,16 @@
         <v>112</v>
       </c>
       <c r="CD180" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="CE180" s="1" t="s">
         <v>438</v>
       </c>
       <c r="CF180" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="CH180" s="1" t="s">
         <v>2581</v>
-      </c>
-      <c r="CH180" s="1" t="s">
-        <v>2582</v>
       </c>
       <c r="CI180" s="1" t="s">
         <v>130</v>
@@ -45188,19 +45132,19 @@
         <v>97</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2584</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2585</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="Q181" s="3">
         <v>28239</v>
@@ -45269,7 +45213,7 @@
         <v>112</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="BB181" s="1">
         <v>7</v>
@@ -45278,16 +45222,16 @@
         <v>23</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH181" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="BI181" s="1" t="s">
         <v>2589</v>
-      </c>
-      <c r="BI181" s="1" t="s">
-        <v>2590</v>
       </c>
       <c r="BN181" s="1" t="s">
         <v>118</v>
@@ -45299,13 +45243,13 @@
         <v>236</v>
       </c>
       <c r="BS181" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BT181" s="3">
         <v>36099</v>
       </c>
       <c r="BU181" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="BV181" s="1" t="s">
         <v>122</v>
@@ -45323,19 +45267,19 @@
         <v>112</v>
       </c>
       <c r="CD181" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="CE181" s="1" t="s">
         <v>2593</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CF181" s="1" t="s">
         <v>2594</v>
       </c>
-      <c r="CF181" s="1" t="s">
+      <c r="CH181" s="1" t="s">
         <v>2595</v>
       </c>
-      <c r="CH181" s="1" t="s">
+      <c r="CI181" s="1" t="s">
         <v>2596</v>
-      </c>
-      <c r="CI181" s="1" t="s">
-        <v>2597</v>
       </c>
       <c r="CJ181" s="1" t="s">
         <v>130</v>
@@ -45373,19 +45317,19 @@
         <v>97</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2598</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2599</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2600</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="Q182" s="3">
         <v>25589</v>
@@ -45454,7 +45398,7 @@
         <v>112</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BB182" s="1">
         <v>7</v>
@@ -45463,16 +45407,16 @@
         <v>23</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH182" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="BI182" s="1" t="s">
         <v>2604</v>
-      </c>
-      <c r="BI182" s="1" t="s">
-        <v>2605</v>
       </c>
       <c r="BN182" s="1" t="s">
         <v>118</v>
@@ -45484,13 +45428,13 @@
         <v>103</v>
       </c>
       <c r="BS182" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="BT182" s="3">
         <v>37735</v>
       </c>
       <c r="BU182" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="BV182" s="1" t="s">
         <v>122</v>
@@ -45508,19 +45452,19 @@
         <v>112</v>
       </c>
       <c r="CD182" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="CE182" s="1" t="s">
         <v>2608</v>
       </c>
-      <c r="CE182" s="1" t="s">
+      <c r="CF182" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="CF182" s="1" t="s">
+      <c r="CH182" s="1" t="s">
         <v>2610</v>
       </c>
-      <c r="CH182" s="1" t="s">
+      <c r="CI182" s="1" t="s">
         <v>2611</v>
-      </c>
-      <c r="CI182" s="1" t="s">
-        <v>2612</v>
       </c>
       <c r="CJ182" s="1" t="s">
         <v>130</v>
@@ -45558,19 +45502,19 @@
         <v>97</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2614</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2615</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="Q183" s="3">
         <v>29170</v>
@@ -45642,7 +45586,7 @@
         <v>112</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="BB183" s="1">
         <v>7</v>
@@ -45651,13 +45595,13 @@
         <v>23</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>391</v>
@@ -45669,7 +45613,7 @@
         <v>106</v>
       </c>
       <c r="BU183" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BV183" s="1" t="s">
         <v>122</v>
@@ -45687,16 +45631,16 @@
         <v>112</v>
       </c>
       <c r="CD183" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="CE183" s="1" t="s">
         <v>917</v>
       </c>
       <c r="CF183" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="CH183" s="1" t="s">
         <v>2622</v>
-      </c>
-      <c r="CH183" s="1" t="s">
-        <v>2623</v>
       </c>
       <c r="CI183" s="1" t="s">
         <v>398</v>
@@ -45737,19 +45681,19 @@
         <v>97</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2624</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2625</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2626</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="Q184" s="3">
         <v>27250</v>
@@ -45779,10 +45723,10 @@
         <v>107</v>
       </c>
       <c r="AG184" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="AH184" s="1" t="s">
         <v>2628</v>
-      </c>
-      <c r="AH184" s="1" t="s">
-        <v>2629</v>
       </c>
       <c r="AI184" s="1" t="s">
         <v>112</v>
@@ -45824,7 +45768,7 @@
         <v>112</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="BB184" s="1">
         <v>7</v>
@@ -45833,13 +45777,13 @@
         <v>23</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH184" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="BN184" s="1" t="s">
         <v>118</v>
@@ -45848,7 +45792,7 @@
         <v>106</v>
       </c>
       <c r="BU184" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="BV184" s="1" t="s">
         <v>122</v>
@@ -45869,13 +45813,13 @@
         <v>1690</v>
       </c>
       <c r="CE184" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="CF184" s="1" t="s">
         <v>2634</v>
       </c>
-      <c r="CF184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2635</v>
-      </c>
-      <c r="CH184" s="1" t="s">
-        <v>2636</v>
       </c>
       <c r="CI184" s="1" t="s">
         <v>130</v>
@@ -45916,19 +45860,19 @@
         <v>97</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2637</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2638</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2639</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="Q185" s="3">
         <v>27999</v>
@@ -46000,7 +45944,7 @@
         <v>112</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="BB185" s="1">
         <v>7</v>
@@ -46009,16 +45953,16 @@
         <v>23</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH185" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="BI185" s="1" t="s">
         <v>2643</v>
-      </c>
-      <c r="BI185" s="1" t="s">
-        <v>2644</v>
       </c>
       <c r="BN185" s="1" t="s">
         <v>118</v>
@@ -46030,13 +45974,13 @@
         <v>103</v>
       </c>
       <c r="BS185" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="BT185" s="3">
         <v>43602</v>
       </c>
       <c r="BU185" s="1" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="BV185" s="1" t="s">
         <v>122</v>
@@ -46060,10 +46004,10 @@
         <v>1012</v>
       </c>
       <c r="CF185" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="CH185" s="1" t="s">
         <v>2647</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2648</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>2231</v>
@@ -46104,19 +46048,19 @@
         <v>97</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2649</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2650</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2651</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="Q186" s="3">
         <v>29305</v>
@@ -46188,7 +46132,7 @@
         <v>112</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="BB186" s="1">
         <v>7</v>
@@ -46197,13 +46141,13 @@
         <v>23</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="BI186" s="1" t="s">
         <v>602</v>
@@ -46215,7 +46159,7 @@
         <v>106</v>
       </c>
       <c r="BU186" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="BV186" s="1" t="s">
         <v>122</v>
@@ -46233,16 +46177,16 @@
         <v>112</v>
       </c>
       <c r="CD186" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="CE186" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="CE186" s="1" t="s">
+      <c r="CF186" s="1" t="s">
         <v>2658</v>
       </c>
-      <c r="CF186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2659</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2660</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>609</v>
@@ -46283,19 +46227,19 @@
         <v>97</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2661</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2662</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2663</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="Q187" s="3">
         <v>23125</v>
@@ -46328,7 +46272,7 @@
         <v>42247</v>
       </c>
       <c r="AD187" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="AF187" s="1" t="s">
         <v>107</v>
@@ -46382,16 +46326,16 @@
         <v>23</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2667</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2668</v>
       </c>
       <c r="BN187" s="1" t="s">
         <v>118</v>
@@ -46403,13 +46347,13 @@
         <v>236</v>
       </c>
       <c r="BS187" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="BT187" s="3">
         <v>36580</v>
       </c>
       <c r="BU187" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="BV187" s="1" t="s">
         <v>122</v>
@@ -46430,7 +46374,7 @@
         <v>112</v>
       </c>
       <c r="CD187" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="CE187" s="1" t="s">
         <v>310</v>
@@ -46439,10 +46383,10 @@
         <v>1724</v>
       </c>
       <c r="CH187" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="CI187" s="1" t="s">
         <v>2672</v>
-      </c>
-      <c r="CI187" s="1" t="s">
-        <v>2673</v>
       </c>
       <c r="CJ187" s="1" t="s">
         <v>130</v>
@@ -46480,19 +46424,19 @@
         <v>97</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2674</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2675</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2676</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="Q188" s="3">
         <v>30023</v>
@@ -46570,16 +46514,16 @@
         <v>23</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="BI188" s="1" t="s">
         <v>2679</v>
-      </c>
-      <c r="BI188" s="1" t="s">
-        <v>2680</v>
       </c>
       <c r="BN188" s="1" t="s">
         <v>118</v>
@@ -46591,13 +46535,13 @@
         <v>119</v>
       </c>
       <c r="BS188" s="1" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="BT188" s="3">
         <v>37747</v>
       </c>
       <c r="BU188" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="BV188" s="1" t="s">
         <v>122</v>
@@ -46621,13 +46565,13 @@
         <v>689</v>
       </c>
       <c r="CF188" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="CH188" s="1" t="s">
         <v>2683</v>
       </c>
-      <c r="CH188" s="1" t="s">
+      <c r="CI188" s="1" t="s">
         <v>2684</v>
-      </c>
-      <c r="CI188" s="1" t="s">
-        <v>2685</v>
       </c>
       <c r="CJ188" s="1" t="s">
         <v>130</v>
@@ -46665,19 +46609,19 @@
         <v>97</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2687</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2688</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="Q189" s="3">
         <v>26205</v>
@@ -46758,13 +46702,13 @@
         <v>23</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="BN189" s="1" t="s">
         <v>118</v>
@@ -46773,7 +46717,7 @@
         <v>106</v>
       </c>
       <c r="BU189" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="BV189" s="1" t="s">
         <v>122</v>
@@ -46791,16 +46735,16 @@
         <v>112</v>
       </c>
       <c r="CD189" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="CE189" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="CE189" s="1" t="s">
+      <c r="CF189" s="1" t="s">
         <v>2694</v>
       </c>
-      <c r="CF189" s="1" t="s">
+      <c r="CH189" s="1" t="s">
         <v>2695</v>
-      </c>
-      <c r="CH189" s="1" t="s">
-        <v>2696</v>
       </c>
       <c r="CI189" s="1" t="s">
         <v>130</v>
@@ -46841,19 +46785,19 @@
         <v>97</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2698</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2699</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="Q190" s="3">
         <v>31662</v>
@@ -46934,13 +46878,13 @@
         <v>23</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="BI190" s="1" t="s">
         <v>602</v>
@@ -46955,7 +46899,7 @@
         <v>163</v>
       </c>
       <c r="BU190" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="BV190" s="1" t="s">
         <v>122</v>
@@ -46973,16 +46917,16 @@
         <v>112</v>
       </c>
       <c r="CD190" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="CE190" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="CE190" s="1" t="s">
+      <c r="CF190" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="CF190" s="1" t="s">
+      <c r="CH190" s="1" t="s">
         <v>2706</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2707</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>609</v>
@@ -47023,19 +46967,19 @@
         <v>97</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2709</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2710</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="Q191" s="3">
         <v>29117</v>
@@ -47110,16 +47054,16 @@
         <v>23</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="BI191" s="1" t="s">
         <v>2713</v>
-      </c>
-      <c r="BI191" s="1" t="s">
-        <v>2714</v>
       </c>
       <c r="BN191" s="1" t="s">
         <v>118</v>
@@ -47131,13 +47075,13 @@
         <v>103</v>
       </c>
       <c r="BS191" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="BT191" s="3">
         <v>37334</v>
       </c>
       <c r="BU191" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="BV191" s="1" t="s">
         <v>122</v>
@@ -47158,16 +47102,16 @@
         <v>518</v>
       </c>
       <c r="CE191" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="CF191" s="1" t="s">
         <v>2717</v>
       </c>
-      <c r="CF191" s="1" t="s">
+      <c r="CH191" s="1" t="s">
         <v>2718</v>
       </c>
-      <c r="CH191" s="1" t="s">
+      <c r="CI191" s="1" t="s">
         <v>2719</v>
-      </c>
-      <c r="CI191" s="1" t="s">
-        <v>2720</v>
       </c>
       <c r="CJ191" s="1" t="s">
         <v>130</v>
@@ -47205,19 +47149,19 @@
         <v>97</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2722</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2723</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="Q192" s="3">
         <v>30007</v>
@@ -47295,16 +47239,16 @@
         <v>23</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="BI192" s="1" t="s">
         <v>2726</v>
-      </c>
-      <c r="BI192" s="1" t="s">
-        <v>2727</v>
       </c>
       <c r="BN192" s="1" t="s">
         <v>118</v>
@@ -47316,13 +47260,13 @@
         <v>103</v>
       </c>
       <c r="BS192" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="BT192" s="3">
         <v>37904</v>
       </c>
       <c r="BU192" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="BV192" s="1" t="s">
         <v>122</v>
@@ -47343,16 +47287,16 @@
         <v>1012</v>
       </c>
       <c r="CE192" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="CF192" s="1" t="s">
         <v>2730</v>
       </c>
-      <c r="CF192" s="1" t="s">
+      <c r="CH192" s="1" t="s">
         <v>2731</v>
       </c>
-      <c r="CH192" s="1" t="s">
+      <c r="CI192" s="1" t="s">
         <v>2732</v>
-      </c>
-      <c r="CI192" s="1" t="s">
-        <v>2733</v>
       </c>
       <c r="CJ192" s="1" t="s">
         <v>130</v>
@@ -47390,19 +47334,19 @@
         <v>97</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2734</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2735</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2736</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="Q193" s="3">
         <v>26221</v>
@@ -47480,13 +47424,13 @@
         <v>23</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="BI193" s="1" t="s">
         <v>391</v>
@@ -47501,13 +47445,13 @@
         <v>119</v>
       </c>
       <c r="BS193" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="BT193" s="3">
         <v>36111</v>
       </c>
       <c r="BU193" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="BV193" s="1" t="s">
         <v>122</v>
@@ -47525,16 +47469,16 @@
         <v>112</v>
       </c>
       <c r="CD193" s="1" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="CE193" s="1" t="s">
         <v>1212</v>
       </c>
       <c r="CF193" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="CH193" s="1" t="s">
         <v>2743</v>
-      </c>
-      <c r="CH193" s="1" t="s">
-        <v>2744</v>
       </c>
       <c r="CI193" s="1" t="s">
         <v>398</v>
@@ -47575,19 +47519,19 @@
         <v>97</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2745</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2746</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2747</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="Q194" s="3">
         <v>27571</v>
@@ -47662,16 +47606,16 @@
         <v>23</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2750</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2751</v>
       </c>
       <c r="BN194" s="1" t="s">
         <v>118</v>
@@ -47683,13 +47627,13 @@
         <v>119</v>
       </c>
       <c r="BS194" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="BT194" s="3">
         <v>37785</v>
       </c>
       <c r="BU194" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="BV194" s="1" t="s">
         <v>122</v>
@@ -47707,19 +47651,19 @@
         <v>112</v>
       </c>
       <c r="CD194" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="CE194" s="1" t="s">
         <v>2754</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CF194" s="1" t="s">
         <v>2755</v>
       </c>
-      <c r="CF194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2756</v>
       </c>
-      <c r="CH194" s="1" t="s">
+      <c r="CI194" s="1" t="s">
         <v>2757</v>
-      </c>
-      <c r="CI194" s="1" t="s">
-        <v>2758</v>
       </c>
       <c r="CJ194" s="1" t="s">
         <v>130</v>
@@ -47751,16 +47695,16 @@
         <v>95</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2760</v>
-      </c>
-      <c r="L195" s="1" t="s">
-        <v>2761</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>101</v>
@@ -47838,7 +47782,7 @@
         <v>20</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="BN195" s="1" t="s">
         <v>118</v>
@@ -47853,7 +47797,7 @@
         <v>0</v>
       </c>
       <c r="CA195" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="CB195" s="1" t="s">
         <v>124</v>
@@ -47862,7 +47806,7 @@
         <v>112</v>
       </c>
       <c r="CD195" s="1" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="CH195" s="1" t="s">
         <v>130</v>
@@ -47906,19 +47850,19 @@
         <v>97</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2764</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2765</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2766</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="Q196" s="3">
         <v>30993</v>
@@ -47990,7 +47934,7 @@
         <v>112</v>
       </c>
       <c r="AZ196" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="BB196" s="1">
         <v>7</v>
@@ -47999,13 +47943,13 @@
         <v>23</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="BI196" s="1" t="s">
         <v>880</v>
@@ -48017,7 +47961,7 @@
         <v>106</v>
       </c>
       <c r="BU196" s="1" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="BV196" s="1" t="s">
         <v>122</v>
@@ -48035,16 +47979,16 @@
         <v>112</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2772</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CF196" s="1" t="s">
         <v>2773</v>
       </c>
-      <c r="CF196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2774</v>
-      </c>
-      <c r="CH196" s="1" t="s">
-        <v>2775</v>
       </c>
       <c r="CI196" s="1" t="s">
         <v>885</v>
@@ -48085,19 +48029,19 @@
         <v>97</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2777</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2778</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="Q197" s="3">
         <v>30065</v>
@@ -48169,7 +48113,7 @@
         <v>112</v>
       </c>
       <c r="AZ197" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="BB197" s="1">
         <v>7</v>
@@ -48178,16 +48122,16 @@
         <v>23</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="BG197" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="BI197" s="1" t="s">
         <v>2782</v>
-      </c>
-      <c r="BI197" s="1" t="s">
-        <v>2783</v>
       </c>
       <c r="BN197" s="1" t="s">
         <v>118</v>
@@ -48196,7 +48140,7 @@
         <v>106</v>
       </c>
       <c r="BU197" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="BV197" s="1" t="s">
         <v>122</v>
@@ -48214,19 +48158,19 @@
         <v>112</v>
       </c>
       <c r="CD197" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="CE197" s="1" t="s">
         <v>1186</v>
       </c>
       <c r="CF197" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="CH197" s="1" t="s">
         <v>2786</v>
       </c>
-      <c r="CH197" s="1" t="s">
+      <c r="CI197" s="1" t="s">
         <v>2787</v>
-      </c>
-      <c r="CI197" s="1" t="s">
-        <v>2788</v>
       </c>
       <c r="CJ197" s="1" t="s">
         <v>130</v>
@@ -48264,19 +48208,19 @@
         <v>97</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2789</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2790</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2791</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="Q198" s="3">
         <v>30033</v>
@@ -48348,7 +48292,7 @@
         <v>112</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="BB198" s="1">
         <v>7</v>
@@ -48357,13 +48301,13 @@
         <v>23</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="BI198" s="1" t="s">
         <v>880</v>
@@ -48375,7 +48319,7 @@
         <v>106</v>
       </c>
       <c r="BU198" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="BV198" s="1" t="s">
         <v>122</v>
@@ -48396,13 +48340,13 @@
         <v>1186</v>
       </c>
       <c r="CE198" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="CF198" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="CF198" s="1" t="s">
+      <c r="CH198" s="1" t="s">
         <v>2798</v>
-      </c>
-      <c r="CH198" s="1" t="s">
-        <v>2799</v>
       </c>
       <c r="CI198" s="1" t="s">
         <v>885</v>
@@ -48443,19 +48387,19 @@
         <v>97</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2801</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2802</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="Q199" s="3">
         <v>29411</v>
@@ -48527,7 +48471,7 @@
         <v>112</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="BB199" s="1">
         <v>7</v>
@@ -48536,13 +48480,13 @@
         <v>23</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>2355</v>
@@ -48560,13 +48504,13 @@
         <v>163</v>
       </c>
       <c r="BS199" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="BT199" s="3">
         <v>37513</v>
       </c>
       <c r="BU199" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="BV199" s="1" t="s">
         <v>122</v>
@@ -48584,16 +48528,16 @@
         <v>112</v>
       </c>
       <c r="CD199" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="CE199" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CF199" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="CH199" s="1" t="s">
         <v>2810</v>
-      </c>
-      <c r="CH199" s="1" t="s">
-        <v>2811</v>
       </c>
       <c r="CI199" s="1" t="s">
         <v>2361</v>
@@ -48634,19 +48578,19 @@
         <v>97</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2812</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2813</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2814</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="Q200" s="3">
         <v>32173</v>
@@ -48724,16 +48668,16 @@
         <v>23</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="BI200" s="1" t="s">
         <v>2817</v>
-      </c>
-      <c r="BI200" s="1" t="s">
-        <v>2818</v>
       </c>
       <c r="BN200" s="1" t="s">
         <v>118</v>
@@ -48745,13 +48689,13 @@
         <v>236</v>
       </c>
       <c r="BS200" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="BT200" s="3">
         <v>41024</v>
       </c>
       <c r="BU200" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="BV200" s="1" t="s">
         <v>122</v>
@@ -48769,19 +48713,19 @@
         <v>112</v>
       </c>
       <c r="CD200" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="CE200" s="1" t="s">
         <v>2821</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CF200" s="1" t="s">
         <v>2822</v>
       </c>
-      <c r="CF200" s="1" t="s">
+      <c r="CH200" s="1" t="s">
         <v>2823</v>
       </c>
-      <c r="CH200" s="1" t="s">
+      <c r="CI200" s="1" t="s">
         <v>2824</v>
-      </c>
-      <c r="CI200" s="1" t="s">
-        <v>2825</v>
       </c>
       <c r="CJ200" s="1" t="s">
         <v>130</v>
@@ -48819,10 +48763,10 @@
         <v>97</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2826</v>
-      </c>
-      <c r="L201" s="1" t="s">
-        <v>2827</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>101</v>
@@ -48849,10 +48793,10 @@
         <v>107</v>
       </c>
       <c r="AG201" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="AH201" s="1" t="s">
         <v>2628</v>
-      </c>
-      <c r="AH201" s="1" t="s">
-        <v>2629</v>
       </c>
       <c r="AJ201" s="1" t="s">
         <v>110</v>
@@ -48894,7 +48838,7 @@
         <v>112</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="BB201" s="1">
         <v>2</v>
@@ -48903,7 +48847,7 @@
         <v>21</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="BN201" s="1" t="s">
         <v>118</v>
@@ -48930,7 +48874,7 @@
         <v>112</v>
       </c>
       <c r="CD201" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>1962</v>
@@ -48974,19 +48918,19 @@
         <v>97</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2830</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2831</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2832</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="Q202" s="3">
         <v>30408</v>
@@ -49055,7 +48999,7 @@
         <v>112</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="BB202" s="1">
         <v>7</v>
@@ -49064,13 +49008,13 @@
         <v>23</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>771</v>
@@ -49085,13 +49029,13 @@
         <v>103</v>
       </c>
       <c r="BS202" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="BT202" s="3">
         <v>37336</v>
       </c>
       <c r="BU202" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="BV202" s="1" t="s">
         <v>122</v>
@@ -49109,16 +49053,16 @@
         <v>112</v>
       </c>
       <c r="CD202" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="CE202" s="1" t="s">
         <v>2839</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CF202" s="1" t="s">
         <v>2840</v>
       </c>
-      <c r="CF202" s="1" t="s">
+      <c r="CH202" s="1" t="s">
         <v>2841</v>
-      </c>
-      <c r="CH202" s="1" t="s">
-        <v>2842</v>
       </c>
       <c r="CI202" s="1" t="s">
         <v>777</v>
@@ -49159,19 +49103,19 @@
         <v>97</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2843</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2844</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2845</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="Q203" s="3">
         <v>28132</v>
@@ -49243,7 +49187,7 @@
         <v>112</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="BB203" s="1">
         <v>7</v>
@@ -49252,13 +49196,13 @@
         <v>23</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="BG203" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="BI203" s="1" t="s">
         <v>2417</v>
@@ -49270,7 +49214,7 @@
         <v>106</v>
       </c>
       <c r="BU203" s="1" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="BV203" s="1" t="s">
         <v>122</v>
@@ -49288,16 +49232,16 @@
         <v>112</v>
       </c>
       <c r="CD203" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="CE203" s="1" t="s">
         <v>2851</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CF203" s="1" t="s">
         <v>2852</v>
       </c>
-      <c r="CF203" s="1" t="s">
+      <c r="CH203" s="1" t="s">
         <v>2853</v>
-      </c>
-      <c r="CH203" s="1" t="s">
-        <v>2854</v>
       </c>
       <c r="CI203" s="1" t="s">
         <v>2422</v>
@@ -49338,19 +49282,19 @@
         <v>97</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2855</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2856</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2857</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="Q204" s="3">
         <v>31743</v>
@@ -49431,13 +49375,13 @@
         <v>23</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="BN204" s="1" t="s">
         <v>118</v>
@@ -49446,7 +49390,7 @@
         <v>106</v>
       </c>
       <c r="BU204" s="1" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="BV204" s="1" t="s">
         <v>122</v>
@@ -49464,16 +49408,16 @@
         <v>112</v>
       </c>
       <c r="CD204" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="CE204" s="1" t="s">
         <v>2862</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CF204" s="1" t="s">
         <v>2863</v>
       </c>
-      <c r="CF204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2864</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2865</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>130</v>
@@ -49514,19 +49458,19 @@
         <v>97</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2866</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2867</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2868</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="Q205" s="3">
         <v>23750</v>
@@ -49558,12 +49502,7 @@
       <c r="AB205" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC205" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD205" s="1" t="s">
-        <v>2870</v>
-      </c>
+      <c r="AC205" s="3"/>
       <c r="AF205" s="1" t="s">
         <v>107</v>
       </c>
@@ -49613,7 +49552,7 @@
         <v>112</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="BB205" s="1">
         <v>7</v>
@@ -49622,16 +49561,16 @@
         <v>23</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="BI205" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="BN205" s="1" t="s">
         <v>118</v>
@@ -49640,7 +49579,7 @@
         <v>106</v>
       </c>
       <c r="BU205" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="BV205" s="1" t="s">
         <v>122</v>
@@ -49664,16 +49603,16 @@
         <v>1241</v>
       </c>
       <c r="CE205" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="CF205" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="CH205" s="1" t="s">
         <v>2876</v>
       </c>
-      <c r="CF205" s="1" t="s">
+      <c r="CI205" s="1" t="s">
         <v>2877</v>
-      </c>
-      <c r="CH205" s="1" t="s">
-        <v>2878</v>
-      </c>
-      <c r="CI205" s="1" t="s">
-        <v>2879</v>
       </c>
       <c r="CJ205" s="1" t="s">
         <v>130</v>
@@ -49693,7 +49632,7 @@
         <v>1522</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>112</v>
@@ -49705,16 +49644,16 @@
         <v>95</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>111</v>
@@ -49738,7 +49677,7 @@
         <v>107</v>
       </c>
       <c r="AG206" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="AH206" s="1" t="s">
         <v>387</v>
@@ -49783,7 +49722,7 @@
         <v>0</v>
       </c>
       <c r="CA206" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="CB206" s="1" t="s">
         <v>124</v>
@@ -49792,10 +49731,10 @@
         <v>112</v>
       </c>
       <c r="CD206" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="CF206" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="207" spans="1:88" x14ac:dyDescent="0.25">
@@ -49812,7 +49751,7 @@
         <v>1522</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>112</v>
@@ -49824,16 +49763,16 @@
         <v>95</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>111</v>
@@ -49860,7 +49799,7 @@
         <v>107</v>
       </c>
       <c r="AG207" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="AH207" s="1" t="s">
         <v>387</v>
@@ -49905,7 +49844,7 @@
         <v>0</v>
       </c>
       <c r="CA207" s="1" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="CB207" s="1" t="s">
         <v>124</v>
@@ -49914,10 +49853,10 @@
         <v>112</v>
       </c>
       <c r="CD207" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="CF207" s="1" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="208" spans="1:88" x14ac:dyDescent="0.25">
@@ -49952,10 +49891,10 @@
         <v>97</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>111</v>
@@ -49979,7 +49918,7 @@
         <v>107</v>
       </c>
       <c r="AG208" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="AH208" s="1" t="s">
         <v>387</v>
@@ -50033,10 +49972,10 @@
         <v>112</v>
       </c>
       <c r="CD208" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="CF208" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="209" spans="1:88" x14ac:dyDescent="0.25">
@@ -50053,7 +49992,7 @@
         <v>189</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>93</v>
@@ -50065,16 +50004,16 @@
         <v>95</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>111</v>
@@ -50143,7 +50082,7 @@
         <v>0</v>
       </c>
       <c r="CA209" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="CB209" s="1" t="s">
         <v>124</v>
@@ -50152,10 +50091,10 @@
         <v>112</v>
       </c>
       <c r="CD209" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="CF209" s="1" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="210" spans="1:88" x14ac:dyDescent="0.25">
@@ -50172,7 +50111,7 @@
         <v>1522</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>93</v>
@@ -50184,16 +50123,16 @@
         <v>95</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>111</v>
@@ -50262,7 +50201,7 @@
         <v>0</v>
       </c>
       <c r="CA210" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="CB210" s="1" t="s">
         <v>124</v>
@@ -50271,10 +50210,10 @@
         <v>112</v>
       </c>
       <c r="CD210" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="CF210" s="1" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="211" spans="1:88" x14ac:dyDescent="0.25">
@@ -50291,7 +50230,7 @@
         <v>189</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>93</v>
@@ -50303,16 +50242,16 @@
         <v>95</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>111</v>
@@ -50381,7 +50320,7 @@
         <v>0</v>
       </c>
       <c r="CA211" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="CB211" s="1" t="s">
         <v>124</v>
@@ -50390,10 +50329,10 @@
         <v>112</v>
       </c>
       <c r="CD211" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="CF211" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="212" spans="1:88" x14ac:dyDescent="0.25">
@@ -50428,10 +50367,10 @@
         <v>97</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>111</v>
@@ -50509,10 +50448,10 @@
         <v>112</v>
       </c>
       <c r="CD212" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="CF212" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="213" spans="1:88" x14ac:dyDescent="0.25">
@@ -50547,19 +50486,19 @@
         <v>97</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="N213" s="1" t="s">
         <v>2905</v>
-      </c>
-      <c r="L213" s="1" t="s">
-        <v>2906</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2907</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P213" s="1" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="Q213" s="3">
         <v>26043</v>
@@ -50582,12 +50521,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2870</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>107</v>
       </c>
@@ -50640,13 +50574,13 @@
         <v>23</v>
       </c>
       <c r="BD213" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="BG213" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>391</v>
@@ -50661,13 +50595,13 @@
         <v>103</v>
       </c>
       <c r="BS213" s="1" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="BT213" s="3">
         <v>36306</v>
       </c>
       <c r="BU213" s="1" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="BV213" s="1" t="s">
         <v>122</v>
@@ -50685,16 +50619,16 @@
         <v>112</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="CE213" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="CF213" s="1" t="s">
         <v>2913</v>
       </c>
-      <c r="CE213" s="1" t="s">
+      <c r="CH213" s="1" t="s">
         <v>2914</v>
-      </c>
-      <c r="CF213" s="1" t="s">
-        <v>2915</v>
-      </c>
-      <c r="CH213" s="1" t="s">
-        <v>2916</v>
       </c>
       <c r="CI213" s="1" t="s">
         <v>398</v>
@@ -50735,19 +50669,19 @@
         <v>97</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="N214" s="1" t="s">
         <v>2917</v>
-      </c>
-      <c r="L214" s="1" t="s">
-        <v>2918</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2919</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P214" s="1" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="Q214" s="3">
         <v>29945</v>
@@ -50770,12 +50704,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2870</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>107</v>
       </c>
@@ -50831,13 +50760,13 @@
         <v>23</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="BG214" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>880</v>
@@ -50849,7 +50778,7 @@
         <v>106</v>
       </c>
       <c r="BU214" s="1" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="BV214" s="1" t="s">
         <v>122</v>
@@ -50867,16 +50796,16 @@
         <v>112</v>
       </c>
       <c r="CD214" s="1" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="CE214" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CF214" s="1" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="CH214" s="1" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="CI214" s="1" t="s">
         <v>885</v>
@@ -50917,19 +50846,19 @@
         <v>97</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="N215" s="1" t="s">
         <v>2927</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>2928</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2929</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P215" s="1" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="Q215" s="3">
         <v>29034</v>
@@ -50955,12 +50884,7 @@
       <c r="AB215" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC215" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2870</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>107</v>
       </c>
@@ -51013,13 +50937,13 @@
         <v>23</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>391</v>
@@ -51034,13 +50958,13 @@
         <v>103</v>
       </c>
       <c r="BS215" s="1" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="BT215" s="3">
         <v>38234</v>
       </c>
       <c r="BU215" s="1" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="BV215" s="1" t="s">
         <v>122</v>
@@ -51058,16 +50982,16 @@
         <v>112</v>
       </c>
       <c r="CD215" s="1" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="CE215" s="1" t="s">
         <v>1067</v>
       </c>
       <c r="CF215" s="1" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="CH215" s="1" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="CI215" s="1" t="s">
         <v>398</v>
@@ -51108,19 +51032,19 @@
         <v>97</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2938</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2939</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2940</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="Q216" s="3">
         <v>29062</v>
@@ -51143,12 +51067,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2870</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>107</v>
       </c>
@@ -51204,13 +51123,13 @@
         <v>23</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>983</v>
@@ -51222,7 +51141,7 @@
         <v>106</v>
       </c>
       <c r="BU216" s="1" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="BV216" s="1" t="s">
         <v>122</v>
@@ -51240,16 +51159,16 @@
         <v>112</v>
       </c>
       <c r="CD216" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="CE216" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="CF216" s="1" t="s">
         <v>2945</v>
       </c>
-      <c r="CE216" s="1" t="s">
+      <c r="CH216" s="1" t="s">
         <v>2946</v>
-      </c>
-      <c r="CF216" s="1" t="s">
-        <v>2947</v>
-      </c>
-      <c r="CH216" s="1" t="s">
-        <v>2948</v>
       </c>
       <c r="CI216" s="1" t="s">
         <v>989</v>
@@ -51290,19 +51209,19 @@
         <v>97</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2949</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2950</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2951</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="Q217" s="3">
         <v>29181</v>
@@ -51325,12 +51244,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2870</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>107</v>
       </c>
@@ -51383,16 +51297,16 @@
         <v>23</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="BI217" s="1" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="BN217" s="1" t="s">
         <v>118</v>
@@ -51404,13 +51318,13 @@
         <v>236</v>
       </c>
       <c r="BS217" s="1" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="BT217" s="3">
         <v>37069</v>
       </c>
       <c r="BU217" s="1" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="BV217" s="1" t="s">
         <v>122</v>
@@ -51431,16 +51345,16 @@
         <v>788</v>
       </c>
       <c r="CE217" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="CF217" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="CH217" s="1" t="s">
         <v>2958</v>
       </c>
-      <c r="CF217" s="1" t="s">
+      <c r="CI217" s="1" t="s">
         <v>2959</v>
-      </c>
-      <c r="CH217" s="1" t="s">
-        <v>2960</v>
-      </c>
-      <c r="CI217" s="1" t="s">
-        <v>2961</v>
       </c>
       <c r="CJ217" s="1" t="s">
         <v>130</v>
@@ -51478,19 +51392,19 @@
         <v>97</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2962</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2963</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2964</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
       <c r="Q218" s="3">
         <v>30033</v>
@@ -51513,12 +51427,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2870</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>107</v>
       </c>
@@ -51574,13 +51483,13 @@
         <v>23</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>983</v>
@@ -51592,7 +51501,7 @@
         <v>106</v>
       </c>
       <c r="BU218" s="1" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="BV218" s="1" t="s">
         <v>122</v>
@@ -51610,16 +51519,16 @@
         <v>112</v>
       </c>
       <c r="CD218" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="CE218" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="CF218" s="1" t="s">
         <v>2969</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CH218" s="1" t="s">
         <v>2970</v>
-      </c>
-      <c r="CF218" s="1" t="s">
-        <v>2971</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2972</v>
       </c>
       <c r="CI218" s="1" t="s">
         <v>989</v>
@@ -51660,19 +51569,19 @@
         <v>97</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2973</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2974</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2975</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="Q219" s="3">
         <v>26843</v>
@@ -51695,12 +51604,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2977</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>107</v>
       </c>
@@ -51747,7 +51651,7 @@
         <v>112</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="BB219" s="1">
         <v>7</v>
@@ -51756,16 +51660,16 @@
         <v>23</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="BI219" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="BN219" s="1" t="s">
         <v>118</v>
@@ -51777,13 +51681,13 @@
         <v>236</v>
       </c>
       <c r="BS219" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="BT219" s="3">
         <v>35125</v>
       </c>
       <c r="BU219" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="BV219" s="1" t="s">
         <v>122</v>
@@ -51801,19 +51705,19 @@
         <v>112</v>
       </c>
       <c r="CD219" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="CE219" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF219" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="CH219" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="CI219" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="CJ219" s="1" t="s">
         <v>130</v>
@@ -51851,19 +51755,19 @@
         <v>97</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="Q220" s="3">
         <v>25903</v>
@@ -51893,7 +51797,7 @@
         <v>107</v>
       </c>
       <c r="AG220" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="AH220" s="1" t="s">
         <v>2294</v>
@@ -51944,7 +51848,7 @@
         <v>23</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>115</v>
@@ -51953,7 +51857,7 @@
         <v>118</v>
       </c>
       <c r="BU220" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="BV220" s="1" t="s">
         <v>122</v>
@@ -51971,13 +51875,13 @@
         <v>112</v>
       </c>
       <c r="CD220" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="CF220" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>130</v>
@@ -52021,19 +51925,19 @@
         <v>97</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="N221" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="Q221" s="3">
         <v>28577</v>
@@ -52114,13 +52018,13 @@
         <v>23</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="BN221" s="1" t="s">
         <v>118</v>
@@ -52129,7 +52033,7 @@
         <v>106</v>
       </c>
       <c r="BU221" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="BV221" s="1" t="s">
         <v>122</v>
@@ -52150,13 +52054,13 @@
         <v>347</v>
       </c>
       <c r="CE221" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="CF221" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="CH221" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="CI221" s="1" t="s">
         <v>130</v>
@@ -52197,19 +52101,19 @@
         <v>97</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="Q222" s="3">
         <v>23039</v>
@@ -52287,16 +52191,16 @@
         <v>23</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="BI222" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="BN222" s="1" t="s">
         <v>118</v>
@@ -52308,13 +52212,13 @@
         <v>236</v>
       </c>
       <c r="BS222" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="BT222" s="3">
         <v>34307</v>
       </c>
       <c r="BU222" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="BV222" s="1" t="s">
         <v>122</v>
@@ -52332,19 +52236,19 @@
         <v>112</v>
       </c>
       <c r="CD222" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="CE222" s="1" t="s">
         <v>438</v>
       </c>
       <c r="CF222" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="CH222" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="CI222" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="CJ222" s="1" t="s">
         <v>130</v>
@@ -52382,19 +52286,19 @@
         <v>97</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="Q223" s="3">
         <v>31561</v>
@@ -52478,13 +52382,13 @@
         <v>23</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="BN223" s="1" t="s">
         <v>118</v>
@@ -52493,7 +52397,7 @@
         <v>106</v>
       </c>
       <c r="BU223" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="BV223" s="1" t="s">
         <v>122</v>
@@ -52523,10 +52427,10 @@
         <v>1307</v>
       </c>
       <c r="CF223" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="CH223" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>130</v>
@@ -52567,19 +52471,19 @@
         <v>97</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="Q224" s="3">
         <v>32847</v>
@@ -52660,13 +52564,13 @@
         <v>23</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="BI224" s="1" t="s">
         <v>983</v>
@@ -52684,13 +52588,13 @@
         <v>163</v>
       </c>
       <c r="BS224" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BT224" s="3">
         <v>5347</v>
       </c>
       <c r="BU224" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="BV224" s="1" t="s">
         <v>122</v>
@@ -52714,16 +52618,16 @@
         <v>112</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>471</v>
       </c>
       <c r="CF224" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="CI224" s="1" t="s">
         <v>989</v>
@@ -52764,10 +52668,10 @@
         <v>97</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>101</v>
@@ -52845,7 +52749,7 @@
         <v>22</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="BN225" s="1" t="s">
         <v>118</v>
@@ -52875,7 +52779,7 @@
         <v>112</v>
       </c>
       <c r="CD225" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="CH225" s="1" t="s">
         <v>130</v>
@@ -52919,10 +52823,10 @@
         <v>97</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>101</v>
@@ -52952,10 +52856,10 @@
         <v>107</v>
       </c>
       <c r="AG226" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="AH226" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="AJ226" s="1" t="s">
         <v>110</v>
@@ -53003,7 +52907,7 @@
         <v>21</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="BN226" s="1" t="s">
         <v>118</v>
@@ -53033,7 +52937,7 @@
         <v>93</v>
       </c>
       <c r="CD226" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>130</v>
@@ -53077,10 +52981,10 @@
         <v>97</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>101</v>
@@ -53110,10 +53014,10 @@
         <v>107</v>
       </c>
       <c r="AG227" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="AH227" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="AJ227" s="1" t="s">
         <v>110</v>
@@ -53161,7 +53065,7 @@
         <v>21</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="BN227" s="1" t="s">
         <v>118</v>
@@ -53188,7 +53092,7 @@
         <v>93</v>
       </c>
       <c r="CD227" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>130</v>
@@ -53232,19 +53136,19 @@
         <v>97</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P228" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="Q228" s="3">
         <v>27265</v>
@@ -53328,7 +53232,7 @@
         <v>23</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="BG228" s="1" t="s">
         <v>115</v>
@@ -53337,7 +53241,7 @@
         <v>118</v>
       </c>
       <c r="BU228" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="BV228" s="1" t="s">
         <v>122</v>
@@ -53358,13 +53262,13 @@
         <v>112</v>
       </c>
       <c r="CD228" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="CF228" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>130</v>
@@ -53408,19 +53312,19 @@
         <v>97</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P229" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="Q229" s="3">
         <v>27433</v>
@@ -53501,13 +53405,13 @@
         <v>23</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="BG229" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="BN229" s="1" t="s">
         <v>118</v>
@@ -53519,13 +53423,13 @@
         <v>119</v>
       </c>
       <c r="BS229" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="BT229" s="3">
         <v>35278</v>
       </c>
       <c r="BU229" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="BV229" s="1" t="s">
         <v>122</v>
@@ -53546,16 +53450,16 @@
         <v>112</v>
       </c>
       <c r="CD229" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="CE229" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="CF229" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="CH229" s="1" t="s">
         <v>3067</v>
-      </c>
-      <c r="CE229" s="1" t="s">
-        <v>3068</v>
-      </c>
-      <c r="CF229" s="1" t="s">
-        <v>3069</v>
-      </c>
-      <c r="CH229" s="1" t="s">
-        <v>3070</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>130</v>
@@ -53596,19 +53500,19 @@
         <v>97</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P230" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="Q230" s="3">
         <v>22262</v>
@@ -53692,19 +53596,19 @@
         <v>23</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="BG230" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BN230" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU230" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="BV230" s="1" t="s">
         <v>122</v>
@@ -53725,16 +53629,16 @@
         <v>112</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="CE230" s="1" t="s">
         <v>472</v>
       </c>
       <c r="CF230" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="CH230" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="CI230" s="1" t="s">
         <v>130</v>
@@ -53775,10 +53679,10 @@
         <v>97</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>101</v>
@@ -53808,10 +53712,10 @@
         <v>107</v>
       </c>
       <c r="AG231" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="AH231" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="AJ231" s="1" t="s">
         <v>110</v>
@@ -53856,7 +53760,7 @@
         <v>22</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="BN231" s="1" t="s">
         <v>118</v>
@@ -53883,7 +53787,7 @@
         <v>93</v>
       </c>
       <c r="CD231" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>130</v>
@@ -53927,10 +53831,10 @@
         <v>97</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>101</v>
@@ -54005,7 +53909,7 @@
         <v>23</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="BN232" s="1" t="s">
         <v>118</v>
@@ -54032,7 +53936,7 @@
         <v>112</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>1962</v>
@@ -54058,7 +53962,7 @@
         <v>189</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>93</v>
@@ -54070,22 +53974,22 @@
         <v>95</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="M233" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="N233" s="1" t="s">
         <v>3090</v>
-      </c>
-      <c r="L233" s="1" t="s">
-        <v>3091</v>
-      </c>
-      <c r="M233" s="1" t="s">
-        <v>3092</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>3093</v>
       </c>
       <c r="Q233" s="3">
         <v>17060</v>
@@ -54118,13 +54022,13 @@
         <v>42628</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>138</v>
@@ -54169,22 +54073,22 @@
         <v>112</v>
       </c>
       <c r="AZ233" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="BB233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD233" s="1" t="s">
+        <v>3094</v>
+      </c>
+      <c r="BH233" s="1" t="s">
+        <v>3095</v>
+      </c>
+      <c r="BI233" s="1" t="s">
         <v>3096</v>
-      </c>
-      <c r="BB233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD233" s="1" t="s">
-        <v>3097</v>
-      </c>
-      <c r="BH233" s="1" t="s">
-        <v>3098</v>
-      </c>
-      <c r="BI233" s="1" t="s">
-        <v>3099</v>
       </c>
       <c r="BN233" s="1" t="s">
         <v>118</v>
@@ -54193,7 +54097,7 @@
         <v>106</v>
       </c>
       <c r="BU233" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="BV233" s="1" t="s">
         <v>122</v>
@@ -54217,13 +54121,13 @@
         <v>126</v>
       </c>
       <c r="CF233" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="CH233" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="CI233" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="CJ233" s="1" t="s">
         <v>130</v>
@@ -54237,13 +54141,13 @@
         <v>89</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>112</v>
@@ -54255,22 +54159,22 @@
         <v>95</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="Q234" s="3">
         <v>26864</v>
@@ -54303,7 +54207,7 @@
         <v>42735</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>107</v>
@@ -54357,10 +54261,10 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="BN234" s="1" t="s">
         <v>118</v>
@@ -54372,13 +54276,13 @@
         <v>236</v>
       </c>
       <c r="BS234" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="BT234" s="3">
         <v>102</v>
       </c>
       <c r="BU234" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="BV234" s="1" t="s">
         <v>122</v>
@@ -54390,7 +54294,7 @@
         <v>111</v>
       </c>
       <c r="CA234" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="CB234" s="1" t="s">
         <v>124</v>
@@ -54399,16 +54303,16 @@
         <v>112</v>
       </c>
       <c r="CD234" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="CF234" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="CH234" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="CI234" s="1" t="s">
         <v>130</v>
@@ -54449,16 +54353,16 @@
         <v>97</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="Q235" s="3">
         <v>25379</v>
@@ -54488,7 +54392,7 @@
         <v>39800</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>251</v>
@@ -54542,10 +54446,10 @@
         <v>0</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="BN235" s="1" t="s">
         <v>118</v>
@@ -54557,13 +54461,13 @@
         <v>1743</v>
       </c>
       <c r="BS235" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="BT235" s="3">
         <v>35915</v>
       </c>
       <c r="BU235" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BV235" s="1" t="s">
         <v>122</v>
@@ -54593,10 +54497,10 @@
         <v>663</v>
       </c>
       <c r="CF235" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="CH235" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="CI235" s="1" t="s">
         <v>130</v>
@@ -54619,7 +54523,7 @@
         <v>91</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>112</v>
@@ -54631,22 +54535,22 @@
         <v>95</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="Q236" s="3">
         <v>17470</v>
@@ -54676,7 +54580,7 @@
         <v>43100</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>107</v>
@@ -54733,10 +54637,10 @@
         <v>0</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="BN236" s="1" t="s">
         <v>118</v>
@@ -54745,7 +54649,7 @@
         <v>106</v>
       </c>
       <c r="BU236" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="BV236" s="1" t="s">
         <v>122</v>
@@ -54769,16 +54673,16 @@
         <v>112</v>
       </c>
       <c r="CD236" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="CF236" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="CH236" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="CI236" s="1" t="s">
         <v>130</v>
@@ -54801,7 +54705,7 @@
         <v>91</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>112</v>
@@ -54813,22 +54717,22 @@
         <v>95</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="Q237" s="3">
         <v>23356</v>
@@ -54855,7 +54759,7 @@
         <v>43105</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>107</v>
@@ -54909,10 +54813,10 @@
         <v>0</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="BN237" s="1" t="s">
         <v>118</v>
@@ -54924,13 +54828,13 @@
         <v>103</v>
       </c>
       <c r="BS237" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="BT237" s="3">
         <v>34412</v>
       </c>
       <c r="BU237" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="BV237" s="1" t="s">
         <v>122</v>
@@ -54939,7 +54843,7 @@
         <v>0</v>
       </c>
       <c r="CA237" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="CB237" s="1" t="s">
         <v>124</v>
@@ -54948,16 +54852,16 @@
         <v>112</v>
       </c>
       <c r="CD237" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="CE237" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="CF237" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="CH237" s="1" t="s">
         <v>3149</v>
-      </c>
-      <c r="CE237" s="1" t="s">
-        <v>3150</v>
-      </c>
-      <c r="CF237" s="1" t="s">
-        <v>3151</v>
-      </c>
-      <c r="CH237" s="1" t="s">
-        <v>3152</v>
       </c>
       <c r="CI237" s="1" t="s">
         <v>130</v>
@@ -54980,7 +54884,7 @@
         <v>1522</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>93</v>
@@ -54992,22 +54896,22 @@
         <v>95</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="Q238" s="3">
         <v>17726</v>
@@ -55043,7 +54947,7 @@
         <v>43312</v>
       </c>
       <c r="AD238" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="AF238" s="1" t="s">
         <v>251</v>
@@ -55094,7 +54998,7 @@
         <v>112</v>
       </c>
       <c r="AZ238" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="BB238" s="1">
         <v>0</v>
@@ -55103,10 +55007,10 @@
         <v>0</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="BN238" s="1" t="s">
         <v>118</v>
@@ -55115,7 +55019,7 @@
         <v>106</v>
       </c>
       <c r="BU238" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="BV238" s="1" t="s">
         <v>122</v>
@@ -55124,7 +55028,7 @@
         <v>0</v>
       </c>
       <c r="CA238" s="1" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="CB238" s="1" t="s">
         <v>124</v>
@@ -55133,16 +55037,16 @@
         <v>112</v>
       </c>
       <c r="CD238" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="CF238" s="1" t="s">
         <v>946</v>
       </c>
       <c r="CH238" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="CI238" s="1" t="s">
         <v>130</v>
@@ -55165,7 +55069,7 @@
         <v>1522</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>93</v>
@@ -55177,22 +55081,22 @@
         <v>95</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="Q239" s="3">
         <v>17041</v>
@@ -55222,13 +55126,13 @@
         <v>42735</v>
       </c>
       <c r="AD239" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="AF239" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG239" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="AH239" s="1" t="s">
         <v>2294</v>
@@ -55279,7 +55183,7 @@
         <v>0</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="BN239" s="1" t="s">
         <v>118</v>
@@ -55288,7 +55192,7 @@
         <v>106</v>
       </c>
       <c r="BU239" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="BV239" s="1" t="s">
         <v>122</v>
@@ -55300,7 +55204,7 @@
         <v>111</v>
       </c>
       <c r="CA239" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="CB239" s="1" t="s">
         <v>124</v>
@@ -55309,13 +55213,13 @@
         <v>112</v>
       </c>
       <c r="CD239" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="CF239" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>130</v>
@@ -55341,7 +55245,7 @@
         <v>1522</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>112</v>
@@ -55353,22 +55257,22 @@
         <v>95</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="Q240" s="3">
         <v>30147</v>
@@ -55394,17 +55298,12 @@
       <c r="AA240" s="1">
         <v>0</v>
       </c>
-      <c r="AC240" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD240" s="1" t="s">
-        <v>2870</v>
-      </c>
+      <c r="AC240" s="3"/>
       <c r="AF240" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG240" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="AH240" s="1" t="s">
         <v>387</v>
@@ -55452,10 +55351,10 @@
         <v>0</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="BN240" s="1" t="s">
         <v>118</v>
@@ -55467,13 +55366,13 @@
         <v>103</v>
       </c>
       <c r="BS240" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="BT240" s="3">
         <v>37124</v>
       </c>
       <c r="BU240" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BV240" s="1" t="s">
         <v>122</v>
@@ -55482,7 +55381,7 @@
         <v>0</v>
       </c>
       <c r="CA240" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="CB240" s="1" t="s">
         <v>124</v>
@@ -55491,16 +55390,16 @@
         <v>112</v>
       </c>
       <c r="CD240" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="CE240" s="1" t="s">
         <v>1212</v>
       </c>
       <c r="CF240" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="CH240" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="CI240" s="1" t="s">
         <v>130</v>
@@ -55523,7 +55422,7 @@
         <v>91</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>112</v>
@@ -55535,22 +55434,22 @@
         <v>95</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="Q241" s="3">
         <v>17821</v>
@@ -55586,7 +55485,7 @@
         <v>43388</v>
       </c>
       <c r="AD241" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="AF241" s="1" t="s">
         <v>107</v>
@@ -55637,25 +55536,25 @@
         <v>112</v>
       </c>
       <c r="AZ241" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="BB241" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC241" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD241" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="BE241" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="BF241" s="1" t="s">
         <v>3189</v>
       </c>
-      <c r="BB241" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC241" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD241" s="1" t="s">
+      <c r="BH241" s="1" t="s">
         <v>3190</v>
-      </c>
-      <c r="BE241" s="1" t="s">
-        <v>3191</v>
-      </c>
-      <c r="BF241" s="1" t="s">
-        <v>3192</v>
-      </c>
-      <c r="BH241" s="1" t="s">
-        <v>3193</v>
       </c>
       <c r="BN241" s="1" t="s">
         <v>118</v>
@@ -55664,7 +55563,7 @@
         <v>106</v>
       </c>
       <c r="BU241" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="BV241" s="1" t="s">
         <v>122</v>
@@ -55673,7 +55572,7 @@
         <v>0</v>
       </c>
       <c r="CA241" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="CB241" s="1" t="s">
         <v>124</v>
@@ -55682,16 +55581,16 @@
         <v>112</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="CF241" s="1" t="s">
         <v>503</v>
       </c>
       <c r="CH241" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="CI241" s="1" t="s">
         <v>130</v>
@@ -55732,16 +55631,16 @@
         <v>97</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>101</v>
@@ -55774,7 +55673,7 @@
         <v>43980</v>
       </c>
       <c r="AD242" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="AF242" s="1" t="s">
         <v>107</v>
@@ -55828,10 +55727,10 @@
         <v>20</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="BN242" s="1" t="s">
         <v>118</v>
@@ -55843,13 +55742,13 @@
         <v>1743</v>
       </c>
       <c r="BS242" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="BT242" s="3">
         <v>35915</v>
       </c>
       <c r="BU242" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BV242" s="1" t="s">
         <v>122</v>
@@ -55873,7 +55772,7 @@
         <v>663</v>
       </c>
       <c r="CF242" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>1962</v>
@@ -55911,22 +55810,22 @@
         <v>95</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>101</v>
@@ -55962,7 +55861,7 @@
         <v>44135</v>
       </c>
       <c r="AD243" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="AF243" s="1" t="s">
         <v>107</v>
@@ -56019,10 +55918,10 @@
         <v>20</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="BN243" s="1" t="s">
         <v>118</v>
@@ -56031,7 +55930,7 @@
         <v>106</v>
       </c>
       <c r="BU243" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="BV243" s="1" t="s">
         <v>122</v>
@@ -56040,7 +55939,7 @@
         <v>0</v>
       </c>
       <c r="CA243" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="CB243" s="1" t="s">
         <v>124</v>
@@ -56052,10 +55951,10 @@
         <v>1341</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="CF243" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>1962</v>
@@ -56099,16 +55998,16 @@
         <v>97</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>101</v>
@@ -56141,16 +56040,16 @@
         <v>43847</v>
       </c>
       <c r="AD244" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="AF244" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG244" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="AH244" s="1" t="s">
         <v>2628</v>
-      </c>
-      <c r="AH244" s="1" t="s">
-        <v>2629</v>
       </c>
       <c r="AJ244" s="1" t="s">
         <v>110</v>
@@ -56192,7 +56091,7 @@
         <v>112</v>
       </c>
       <c r="AZ244" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="BB244" s="1">
         <v>2</v>
@@ -56201,10 +56100,10 @@
         <v>21</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="BN244" s="1" t="s">
         <v>118</v>
@@ -56216,13 +56115,13 @@
         <v>119</v>
       </c>
       <c r="BS244" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="BT244" s="3">
         <v>34808</v>
       </c>
       <c r="BU244" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="BV244" s="1" t="s">
         <v>122</v>
@@ -56240,13 +56139,13 @@
         <v>112</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="CF244" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>1962</v>
@@ -56263,10 +56162,10 @@
         <v>88</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1315</v>
@@ -56290,16 +56189,16 @@
         <v>92</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>101</v>
@@ -56353,7 +56252,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -56383,7 +56282,7 @@
         <v>112</v>
       </c>
       <c r="AZ245" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="BB245" s="1">
         <v>2</v>
@@ -56392,13 +56291,13 @@
         <v>21</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="BN245" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU245" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="BV245" s="1" t="s">
         <v>122</v>
@@ -56416,13 +56315,13 @@
         <v>112</v>
       </c>
       <c r="CD245" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="CF245" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>130</v>
@@ -56466,16 +56365,16 @@
         <v>97</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>101</v>
@@ -56514,7 +56413,7 @@
         <v>44246</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>107</v>
@@ -56571,10 +56470,10 @@
         <v>21</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="BN246" s="1" t="s">
         <v>118</v>
@@ -56583,7 +56482,7 @@
         <v>106</v>
       </c>
       <c r="BU246" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="BV246" s="1" t="s">
         <v>122</v>
@@ -56607,13 +56506,13 @@
         <v>112</v>
       </c>
       <c r="CD246" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="CE246" s="1" t="s">
         <v>145</v>
       </c>
       <c r="CF246" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>130</v>
@@ -56657,16 +56556,16 @@
         <v>97</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>101</v>
@@ -56702,7 +56601,7 @@
         <v>44267</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>107</v>
@@ -56759,10 +56658,10 @@
         <v>21</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="BN247" s="1" t="s">
         <v>118</v>
@@ -56774,13 +56673,13 @@
         <v>119</v>
       </c>
       <c r="BS247" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="BT247" s="3">
         <v>35711</v>
       </c>
       <c r="BU247" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="BV247" s="1" t="s">
         <v>122</v>
@@ -56804,7 +56703,7 @@
         <v>395</v>
       </c>
       <c r="CF247" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>130</v>
@@ -56848,16 +56747,16 @@
         <v>97</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>101</v>
@@ -56893,16 +56792,16 @@
         <v>44255</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG248" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="AH248" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="AJ248" s="1" t="s">
         <v>110</v>
@@ -56950,16 +56849,16 @@
         <v>21</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="BE248" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="BF248" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="BN248" s="1" t="s">
         <v>118</v>
@@ -56968,13 +56867,13 @@
         <v>236</v>
       </c>
       <c r="BS248" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="BT248" s="3">
         <v>2302</v>
       </c>
       <c r="BU248" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="BV248" s="1" t="s">
         <v>122</v>
@@ -56998,16 +56897,16 @@
         <v>93</v>
       </c>
       <c r="CD248" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="CE248" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="CF248" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="CH248" s="1" t="s">
         <v>3259</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>3260</v>
-      </c>
-      <c r="CF248" s="1" t="s">
-        <v>3261</v>
-      </c>
-      <c r="CH248" s="1" t="s">
-        <v>3262</v>
       </c>
       <c r="CI248" s="1" t="s">
         <v>130</v>
@@ -57048,16 +56947,16 @@
         <v>97</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>101</v>
@@ -57093,7 +56992,7 @@
         <v>44316</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>107</v>
@@ -57150,10 +57049,10 @@
         <v>21</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="BN249" s="1" t="s">
         <v>118</v>
@@ -57165,13 +57064,13 @@
         <v>236</v>
       </c>
       <c r="BS249" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="BT249" s="3">
         <v>35108</v>
       </c>
       <c r="BU249" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="BV249" s="1" t="s">
         <v>122</v>
@@ -57189,16 +57088,16 @@
         <v>112</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="CE249" s="1" t="s">
         <v>2068</v>
       </c>
       <c r="CF249" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="CH249" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="CI249" s="1" t="s">
         <v>130</v>
@@ -57239,16 +57138,16 @@
         <v>97</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>101</v>
@@ -57284,16 +57183,16 @@
         <v>44507</v>
       </c>
       <c r="AD250" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="AF250" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG250" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="AH250" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="AI250" s="1" t="s">
         <v>112</v>
@@ -57344,16 +57243,16 @@
         <v>21</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="BN250" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU250" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="BV250" s="1" t="s">
         <v>122</v>
@@ -57377,16 +57276,16 @@
         <v>93</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="CF250" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="CH250" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="CI250" s="1" t="s">
         <v>130</v>
@@ -57421,22 +57320,22 @@
         <v>95</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>101</v>
@@ -57469,7 +57368,7 @@
         <v>44701</v>
       </c>
       <c r="AD251" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="AF251" s="1" t="s">
         <v>107</v>
@@ -57517,7 +57416,7 @@
         <v>112</v>
       </c>
       <c r="AZ251" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BB251" s="1">
         <v>5</v>
@@ -57526,13 +57425,13 @@
         <v>22</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="BI251" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="BN251" s="1" t="s">
         <v>118</v>
@@ -57547,13 +57446,13 @@
         <v>163</v>
       </c>
       <c r="BS251" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="BT251" s="3">
         <v>36825</v>
       </c>
       <c r="BU251" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="BV251" s="1" t="s">
         <v>122</v>
@@ -57568,7 +57467,7 @@
         <v>111</v>
       </c>
       <c r="CA251" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="CB251" s="1" t="s">
         <v>124</v>
@@ -57577,19 +57476,19 @@
         <v>112</v>
       </c>
       <c r="CD251" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="CE251" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="CF251" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="CH251" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="CI251" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="CJ251" s="1" t="s">
         <v>130</v>
@@ -57621,22 +57520,22 @@
         <v>95</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>101</v>
@@ -57669,7 +57568,7 @@
         <v>44733</v>
       </c>
       <c r="AD252" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="AF252" s="1" t="s">
         <v>107</v>
@@ -57726,10 +57625,10 @@
         <v>22</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="BN252" s="1" t="s">
         <v>118</v>
@@ -57741,13 +57640,13 @@
         <v>236</v>
       </c>
       <c r="BS252" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="BT252" s="3">
         <v>34412</v>
       </c>
       <c r="BU252" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="BV252" s="1" t="s">
         <v>122</v>
@@ -57768,13 +57667,13 @@
         <v>112</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="CF252" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>2451</v>
@@ -57812,22 +57711,22 @@
         <v>95</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>101</v>
@@ -57860,7 +57759,7 @@
         <v>44561</v>
       </c>
       <c r="AD253" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="AF253" s="1" t="s">
         <v>107</v>
@@ -57917,7 +57816,7 @@
         <v>22</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="BN253" s="1" t="s">
         <v>118</v>
@@ -57926,13 +57825,13 @@
         <v>236</v>
       </c>
       <c r="BS253" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="BT253" s="3">
         <v>5480</v>
       </c>
       <c r="BU253" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="BV253" s="1" t="s">
         <v>122</v>
@@ -57956,13 +57855,13 @@
         <v>112</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="CF253" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>130</v>
@@ -58006,16 +57905,16 @@
         <v>97</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>101</v>
@@ -58051,7 +57950,7 @@
         <v>44788</v>
       </c>
       <c r="AD254" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="AF254" s="1" t="s">
         <v>107</v>
@@ -58111,10 +58010,10 @@
         <v>22</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="BN254" s="1" t="s">
         <v>118</v>
@@ -58129,13 +58028,13 @@
         <v>163</v>
       </c>
       <c r="BS254" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="BT254" s="3">
         <v>35259</v>
       </c>
       <c r="BU254" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="BV254" s="1" t="s">
         <v>122</v>
@@ -58153,13 +58052,13 @@
         <v>112</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="CF254" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>130</v>
@@ -58203,16 +58102,16 @@
         <v>97</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>101</v>
@@ -58245,16 +58144,16 @@
         <v>44833</v>
       </c>
       <c r="AD255" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="AF255" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG255" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="AH255" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="AI255" s="1" t="s">
         <v>112</v>
@@ -58305,16 +58204,16 @@
         <v>22</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="BN255" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU255" s="1" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="BV255" s="1" t="s">
         <v>122</v>
@@ -58326,7 +58225,7 @@
         <v>111</v>
       </c>
       <c r="CA255" s="1" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="CB255" s="1" t="s">
         <v>124</v>
@@ -58335,16 +58234,16 @@
         <v>93</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="CF255" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="CH255" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="CI255" s="1" t="s">
         <v>130</v>
@@ -58385,16 +58284,16 @@
         <v>97</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>101</v>
@@ -58430,16 +58329,16 @@
         <v>44895</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG256" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="AH256" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="AJ256" s="1" t="s">
         <v>110</v>
@@ -58484,10 +58383,10 @@
         <v>22</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="BN256" s="1" t="s">
         <v>118</v>
@@ -58496,13 +58395,13 @@
         <v>119</v>
       </c>
       <c r="BS256" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="BT256" s="3">
         <v>34170</v>
       </c>
       <c r="BU256" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="BV256" s="1" t="s">
         <v>122</v>
@@ -58523,16 +58422,16 @@
         <v>93</v>
       </c>
       <c r="CD256" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="CF256" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="CH256" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="CI256" s="1" t="s">
         <v>130</v>
@@ -58573,19 +58472,19 @@
         <v>97</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P257" s="1" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="Q257" s="3">
         <v>31999</v>
@@ -58666,13 +58565,13 @@
         <v>23</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="BN257" s="1" t="s">
         <v>118</v>
@@ -58681,7 +58580,7 @@
         <v>106</v>
       </c>
       <c r="BU257" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="BV257" s="1" t="s">
         <v>122</v>
@@ -58702,16 +58601,16 @@
         <v>112</v>
       </c>
       <c r="CD257" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="CF257" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="CH257" s="1" t="s">
         <v>3342</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3343</v>
-      </c>
-      <c r="CF257" s="1" t="s">
-        <v>3344</v>
-      </c>
-      <c r="CH257" s="1" t="s">
-        <v>3345</v>
       </c>
       <c r="CI257" s="1" t="s">
         <v>130</v>
@@ -58752,16 +58651,16 @@
         <v>97</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>101</v>
@@ -58794,7 +58693,7 @@
         <v>45007</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>107</v>
@@ -58848,10 +58747,10 @@
         <v>23</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="BN258" s="1" t="s">
         <v>118</v>
@@ -58860,13 +58759,13 @@
         <v>103</v>
       </c>
       <c r="BS258" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="BT258" s="3">
         <v>300</v>
       </c>
       <c r="BU258" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="BV258" s="1" t="s">
         <v>122</v>
@@ -58887,13 +58786,13 @@
         <v>112</v>
       </c>
       <c r="CD258" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="CF258" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>1962</v>
@@ -58937,19 +58836,19 @@
         <v>97</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P259" s="1" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="Q259" s="3">
         <v>19897</v>
@@ -58976,7 +58875,7 @@
         <v>107</v>
       </c>
       <c r="AG259" s="1" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="AH259" s="1" t="s">
         <v>157</v>
@@ -59030,19 +58929,19 @@
         <v>23</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="BN259" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU259" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="BV259" s="1" t="s">
         <v>122</v>
@@ -59063,16 +58962,16 @@
         <v>112</v>
       </c>
       <c r="CD259" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="CF259" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="CH259" s="1" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="CI259" s="1" t="s">
         <v>130</v>
@@ -59113,19 +59012,19 @@
         <v>97</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P260" s="1" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="Q260" s="3">
         <v>27241</v>
@@ -59203,16 +59102,16 @@
         <v>23</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="BG260" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="BI260" s="1" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="BN260" s="1" t="s">
         <v>118</v>
@@ -59224,13 +59123,13 @@
         <v>103</v>
       </c>
       <c r="BS260" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="BT260" s="3">
         <v>424</v>
       </c>
       <c r="BU260" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="BV260" s="1" t="s">
         <v>122</v>
@@ -59251,19 +59150,19 @@
         <v>112</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="CE260" s="1" t="s">
         <v>2136</v>
       </c>
       <c r="CF260" s="1" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="CH260" s="1" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="CI260" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="CJ260" s="1" t="s">
         <v>130</v>
@@ -59274,10 +59173,10 @@
         <v>88</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1315</v>
@@ -59292,7 +59191,7 @@
         <v>94</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>1315</v>
@@ -59301,19 +59200,19 @@
         <v>92</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P261" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="Q261" s="3">
         <v>20466</v>
@@ -59361,7 +59260,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="AO261" s="1">
         <v>0</v>
@@ -59394,19 +59293,19 @@
         <v>23</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="BG261" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="BN261" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU261" s="1" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="BV261" s="1" t="s">
         <v>122</v>
@@ -59424,16 +59323,16 @@
         <v>112</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="CE261" s="1" t="s">
         <v>323</v>
       </c>
       <c r="CF261" s="1" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="CH261" s="1" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="CI261" s="1" t="s">
         <v>130</v>
@@ -59447,10 +59346,10 @@
         <v>88</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1315</v>
@@ -59465,7 +59364,7 @@
         <v>94</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>1315</v>
@@ -59474,19 +59373,19 @@
         <v>92</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P262" s="1" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="Q262" s="3">
         <v>24006</v>
@@ -59531,7 +59430,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="1" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="AO262" s="1">
         <v>0</v>
@@ -59567,19 +59466,19 @@
         <v>23</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
       <c r="BN262" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU262" s="1" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="BV262" s="1" t="s">
         <v>122</v>
@@ -59606,10 +59505,10 @@
         <v>1131</v>
       </c>
       <c r="CF262" s="1" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="CH262" s="1" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="CI262" s="1" t="s">
         <v>130</v>
@@ -59623,10 +59522,10 @@
         <v>88</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1315</v>
@@ -59641,7 +59540,7 @@
         <v>94</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>1315</v>
@@ -59650,19 +59549,19 @@
         <v>92</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P263" s="1" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="Q263" s="3">
         <v>26193</v>
@@ -59707,7 +59606,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="AO263" s="1">
         <v>0</v>
@@ -59743,19 +59642,19 @@
         <v>23</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="BG263" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="BN263" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU263" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="BV263" s="1" t="s">
         <v>122</v>
@@ -59776,16 +59675,16 @@
         <v>112</v>
       </c>
       <c r="CD263" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="CE263" s="1" t="s">
+        <v>3401</v>
+      </c>
+      <c r="CF263" s="1" t="s">
+        <v>3402</v>
+      </c>
+      <c r="CH263" s="1" t="s">
         <v>3403</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>3404</v>
-      </c>
-      <c r="CF263" s="1" t="s">
-        <v>3405</v>
-      </c>
-      <c r="CH263" s="1" t="s">
-        <v>3406</v>
       </c>
       <c r="CI263" s="1" t="s">
         <v>130</v>
@@ -59799,10 +59698,10 @@
         <v>88</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1315</v>
@@ -59817,7 +59716,7 @@
         <v>94</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>1315</v>
@@ -59826,19 +59725,19 @@
         <v>92</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P264" s="1" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="Q264" s="3">
         <v>24325</v>
@@ -59919,19 +59818,19 @@
         <v>23</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="BG264" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="BN264" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU264" s="1" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="BV264" s="1" t="s">
         <v>122</v>
@@ -59952,7 +59851,7 @@
         <v>112</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="CE264" s="1" t="s">
         <v>606</v>
@@ -59961,7 +59860,7 @@
         <v>503</v>
       </c>
       <c r="CH264" s="1" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="CI264" s="1" t="s">
         <v>130</v>
@@ -59975,10 +59874,10 @@
         <v>88</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1315</v>
@@ -59993,7 +59892,7 @@
         <v>94</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>1315</v>
@@ -60002,19 +59901,19 @@
         <v>92</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P265" s="1" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="Q265" s="3">
         <v>24848</v>
@@ -60062,7 +59961,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="1" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="AO265" s="1">
         <v>0</v>
@@ -60098,19 +59997,19 @@
         <v>23</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="BG265" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="BN265" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU265" s="1" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="BV265" s="1" t="s">
         <v>122</v>
@@ -60134,13 +60033,13 @@
         <v>486</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>3424</v>
+        <v>3421</v>
       </c>
       <c r="CF265" s="1" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
       <c r="CH265" s="1" t="s">
-        <v>3426</v>
+        <v>3423</v>
       </c>
       <c r="CI265" s="1" t="s">
         <v>130</v>
@@ -60154,10 +60053,10 @@
         <v>88</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1315</v>
@@ -60172,7 +60071,7 @@
         <v>94</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>1315</v>
@@ -60181,19 +60080,19 @@
         <v>92</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3427</v>
+        <v>3424</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3429</v>
+        <v>3426</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P266" s="1" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="Q266" s="3">
         <v>27702</v>
@@ -60274,19 +60173,19 @@
         <v>23</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3431</v>
+        <v>3428</v>
       </c>
       <c r="BG266" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3432</v>
+        <v>3429</v>
       </c>
       <c r="BN266" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU266" s="1" t="s">
-        <v>3433</v>
+        <v>3430</v>
       </c>
       <c r="BV266" s="1" t="s">
         <v>122</v>
@@ -60307,16 +60206,16 @@
         <v>112</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3434</v>
+        <v>3431</v>
       </c>
       <c r="CE266" s="1" t="s">
         <v>618</v>
       </c>
       <c r="CF266" s="1" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="CH266" s="1" t="s">
-        <v>3436</v>
+        <v>3433</v>
       </c>
       <c r="CI266" s="1" t="s">
         <v>130</v>
@@ -60330,10 +60229,10 @@
         <v>88</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1315</v>
@@ -60348,7 +60247,7 @@
         <v>94</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>1315</v>
@@ -60357,19 +60256,19 @@
         <v>92</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3437</v>
+        <v>3434</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3438</v>
+        <v>3435</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3439</v>
+        <v>3436</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P267" s="1" t="s">
-        <v>3440</v>
+        <v>3437</v>
       </c>
       <c r="Q267" s="3">
         <v>23289</v>
@@ -60417,7 +60316,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="1" t="s">
-        <v>3441</v>
+        <v>3438</v>
       </c>
       <c r="AO267" s="1">
         <v>0</v>
@@ -60453,19 +60352,19 @@
         <v>23</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3442</v>
+        <v>3439</v>
       </c>
       <c r="BG267" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
       <c r="BN267" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU267" s="1" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
       <c r="BV267" s="1" t="s">
         <v>122</v>
@@ -60486,16 +60385,16 @@
         <v>112</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="CE267" s="1" t="s">
         <v>1054</v>
       </c>
       <c r="CF267" s="1" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
       <c r="CH267" s="1" t="s">
-        <v>3447</v>
+        <v>3444</v>
       </c>
       <c r="CI267" s="1" t="s">
         <v>130</v>
@@ -60509,10 +60408,10 @@
         <v>88</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1315</v>
@@ -60527,7 +60426,7 @@
         <v>94</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>1315</v>
@@ -60536,19 +60435,19 @@
         <v>92</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P268" s="1" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="Q268" s="3">
         <v>16546</v>
@@ -60596,7 +60495,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="1" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="AO268" s="1">
         <v>0</v>
@@ -60632,19 +60531,19 @@
         <v>23</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3452</v>
+        <v>3449</v>
       </c>
       <c r="BG268" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="BN268" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU268" s="1" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
       <c r="BV268" s="1" t="s">
         <v>122</v>
@@ -60668,13 +60567,13 @@
         <v>1039</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
       <c r="CF268" s="1" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
       <c r="CH268" s="1" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
       <c r="CI268" s="1" t="s">
         <v>130</v>
@@ -60688,10 +60587,10 @@
         <v>88</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1315</v>
@@ -60706,7 +60605,7 @@
         <v>94</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>1315</v>
@@ -60715,10 +60614,10 @@
         <v>92</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>101</v>
@@ -60760,7 +60659,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="1" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="AO269" s="1">
         <v>0</v>
@@ -60796,7 +60695,7 @@
         <v>21</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="BN269" s="1" t="s">
         <v>118</v>
@@ -60820,7 +60719,7 @@
         <v>112</v>
       </c>
       <c r="CD269" s="1" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>130</v>
@@ -60837,10 +60736,10 @@
         <v>88</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1315</v>
@@ -60855,7 +60754,7 @@
         <v>94</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>1315</v>
@@ -60864,19 +60763,19 @@
         <v>92</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3461</v>
+        <v>3458</v>
       </c>
       <c r="L270" s="1" t="s">
         <v>2391</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3462</v>
+        <v>3459</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P270" s="1" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
       <c r="Q270" s="3">
         <v>23611</v>
@@ -60921,7 +60820,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="1" t="s">
-        <v>3464</v>
+        <v>3461</v>
       </c>
       <c r="AO270" s="1">
         <v>0</v>
@@ -60954,19 +60853,19 @@
         <v>23</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3465</v>
+        <v>3462</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3466</v>
+        <v>3463</v>
       </c>
       <c r="BN270" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU270" s="1" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
       <c r="BV270" s="1" t="s">
         <v>122</v>
@@ -60984,16 +60883,16 @@
         <v>112</v>
       </c>
       <c r="CD270" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="CE270" s="1" t="s">
+        <v>3466</v>
+      </c>
+      <c r="CF270" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="CH270" s="1" t="s">
         <v>3468</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>3469</v>
-      </c>
-      <c r="CF270" s="1" t="s">
-        <v>3470</v>
-      </c>
-      <c r="CH270" s="1" t="s">
-        <v>3471</v>
       </c>
       <c r="CI270" s="1" t="s">
         <v>130</v>
@@ -61007,10 +60906,10 @@
         <v>88</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1315</v>
@@ -61025,7 +60924,7 @@
         <v>94</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1315</v>
@@ -61034,19 +60933,19 @@
         <v>92</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3472</v>
+        <v>3469</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3473</v>
+        <v>3470</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P271" s="1" t="s">
-        <v>3474</v>
+        <v>3471</v>
       </c>
       <c r="Q271" s="3">
         <v>16452</v>
@@ -61124,19 +61023,19 @@
         <v>23</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3475</v>
+        <v>3472</v>
       </c>
       <c r="BG271" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3476</v>
+        <v>3473</v>
       </c>
       <c r="BN271" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU271" s="1" t="s">
-        <v>3477</v>
+        <v>3474</v>
       </c>
       <c r="BV271" s="1" t="s">
         <v>122</v>
@@ -61157,16 +61056,16 @@
         <v>2318</v>
       </c>
       <c r="CD271" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="CE271" s="1" t="s">
+        <v>3476</v>
+      </c>
+      <c r="CF271" s="1" t="s">
+        <v>3477</v>
+      </c>
+      <c r="CH271" s="1" t="s">
         <v>3478</v>
-      </c>
-      <c r="CE271" s="1" t="s">
-        <v>3479</v>
-      </c>
-      <c r="CF271" s="1" t="s">
-        <v>3480</v>
-      </c>
-      <c r="CH271" s="1" t="s">
-        <v>3481</v>
       </c>
       <c r="CI271" s="1" t="s">
         <v>130</v>
@@ -61180,10 +61079,10 @@
         <v>88</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1315</v>
@@ -61198,7 +61097,7 @@
         <v>94</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1315</v>
@@ -61207,19 +61106,19 @@
         <v>92</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3482</v>
+        <v>3479</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>3483</v>
+        <v>3480</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>3484</v>
+        <v>3481</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P272" s="1" t="s">
-        <v>3485</v>
+        <v>3482</v>
       </c>
       <c r="Q272" s="3">
         <v>26349</v>
@@ -61267,7 +61166,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="1" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
       <c r="AO272" s="1">
         <v>0</v>
@@ -61303,19 +61202,19 @@
         <v>23</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
       <c r="BG272" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
       <c r="BN272" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU272" s="1" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
       <c r="BV272" s="1" t="s">
         <v>122</v>
@@ -61336,16 +61235,16 @@
         <v>112</v>
       </c>
       <c r="CD272" s="1" t="s">
-        <v>3478</v>
+        <v>3475</v>
       </c>
       <c r="CE272" s="1" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
       <c r="CF272" s="1" t="s">
-        <v>3491</v>
+        <v>3488</v>
       </c>
       <c r="CH272" s="1" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
       <c r="CI272" s="1" t="s">
         <v>130</v>
@@ -61359,10 +61258,10 @@
         <v>88</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1315</v>
@@ -61377,7 +61276,7 @@
         <v>94</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1315</v>
@@ -61386,10 +61285,10 @@
         <v>92</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3494</v>
+        <v>3491</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>101</v>
@@ -61431,7 +61330,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="AO273" s="1">
         <v>0</v>
@@ -61467,7 +61366,7 @@
         <v>22</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
       <c r="BN273" s="1" t="s">
         <v>118</v>
@@ -61491,7 +61390,7 @@
         <v>112</v>
       </c>
       <c r="CD273" s="1" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
       <c r="CH273" s="1" t="s">
         <v>130</v>
@@ -61508,10 +61407,10 @@
         <v>88</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1315</v>
@@ -61526,7 +61425,7 @@
         <v>94</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1315</v>
@@ -61535,10 +61434,10 @@
         <v>92</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3497</v>
+        <v>3494</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>101</v>
@@ -61580,7 +61479,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="AO274" s="1">
         <v>0</v>
@@ -61616,7 +61515,7 @@
         <v>22</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3498</v>
+        <v>3495</v>
       </c>
       <c r="BN274" s="1" t="s">
         <v>118</v>
@@ -61640,7 +61539,7 @@
         <v>112</v>
       </c>
       <c r="CD274" s="1" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
       <c r="CH274" s="1" t="s">
         <v>130</v>
@@ -61657,10 +61556,10 @@
         <v>88</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1315</v>
@@ -61675,7 +61574,7 @@
         <v>94</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1315</v>
@@ -61684,19 +61583,19 @@
         <v>92</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3500</v>
+        <v>3497</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>3501</v>
+        <v>3498</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P275" s="1" t="s">
-        <v>3502</v>
+        <v>3499</v>
       </c>
       <c r="Q275" s="3">
         <v>13756</v>
@@ -61783,7 +61682,7 @@
         <v>23</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3503</v>
+        <v>3500</v>
       </c>
       <c r="BG275" s="1" t="s">
         <v>115</v>
@@ -61810,10 +61709,10 @@
         <v>112</v>
       </c>
       <c r="CD275" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="CE275" s="1" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
       <c r="CF275" s="1" t="s">
         <v>222</v>
@@ -61833,10 +61732,10 @@
         <v>88</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1315</v>
@@ -61851,7 +61750,7 @@
         <v>94</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1315</v>
@@ -61860,10 +61759,10 @@
         <v>92</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3506</v>
+        <v>3503</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>101</v>
@@ -61905,7 +61804,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="AO276" s="1">
         <v>0</v>
@@ -61941,7 +61840,7 @@
         <v>22</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3507</v>
+        <v>3504</v>
       </c>
       <c r="BN276" s="1" t="s">
         <v>118</v>
@@ -61950,7 +61849,7 @@
         <v>122</v>
       </c>
       <c r="BX276" s="1" t="s">
-        <v>3508</v>
+        <v>3505</v>
       </c>
       <c r="BY276" s="1">
         <v>0</v>
@@ -61968,7 +61867,7 @@
         <v>112</v>
       </c>
       <c r="CD276" s="1" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
       <c r="CH276" s="1" t="s">
         <v>130</v>
@@ -61985,10 +61884,10 @@
         <v>88</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1315</v>
@@ -62003,7 +61902,7 @@
         <v>94</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1315</v>
@@ -62012,19 +61911,19 @@
         <v>92</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3509</v>
+        <v>3506</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>3510</v>
+        <v>3507</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3511</v>
+        <v>3508</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P277" s="1" t="s">
-        <v>3512</v>
+        <v>3509</v>
       </c>
       <c r="Q277" s="3">
         <v>28808</v>
@@ -62069,7 +61968,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="1" t="s">
-        <v>3513</v>
+        <v>3510</v>
       </c>
       <c r="AO277" s="1">
         <v>0</v>
@@ -62105,19 +62004,19 @@
         <v>23</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3514</v>
+        <v>3511</v>
       </c>
       <c r="BG277" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3515</v>
+        <v>3512</v>
       </c>
       <c r="BN277" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU277" s="1" t="s">
-        <v>3516</v>
+        <v>3513</v>
       </c>
       <c r="BV277" s="1" t="s">
         <v>122</v>
@@ -62138,16 +62037,16 @@
         <v>112</v>
       </c>
       <c r="CD277" s="1" t="s">
-        <v>3517</v>
+        <v>3514</v>
       </c>
       <c r="CE277" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="CF277" s="1" t="s">
-        <v>3518</v>
+        <v>3515</v>
       </c>
       <c r="CH277" s="1" t="s">
-        <v>3519</v>
+        <v>3516</v>
       </c>
       <c r="CI277" s="1" t="s">
         <v>130</v>
@@ -62161,10 +62060,10 @@
         <v>88</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1315</v>
@@ -62179,7 +62078,7 @@
         <v>94</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1315</v>
@@ -62188,19 +62087,19 @@
         <v>92</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3520</v>
+        <v>3517</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>3521</v>
+        <v>3518</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3522</v>
+        <v>3519</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P278" s="1" t="s">
-        <v>3523</v>
+        <v>3520</v>
       </c>
       <c r="R278" s="1" t="s">
         <v>136</v>
@@ -62224,7 +62123,7 @@
         <v>107</v>
       </c>
       <c r="AG278" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="AH278" s="1" t="s">
         <v>387</v>
@@ -62239,7 +62138,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="1" t="s">
-        <v>3524</v>
+        <v>3521</v>
       </c>
       <c r="AO278" s="1">
         <v>0</v>
@@ -62269,19 +62168,19 @@
         <v>23</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3525</v>
+        <v>3522</v>
       </c>
       <c r="BG278" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3526</v>
+        <v>3523</v>
       </c>
       <c r="BN278" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU278" s="1" t="s">
-        <v>3527</v>
+        <v>3524</v>
       </c>
       <c r="BV278" s="1" t="s">
         <v>122</v>
@@ -62299,16 +62198,16 @@
         <v>112</v>
       </c>
       <c r="CD278" s="1" t="s">
-        <v>3528</v>
+        <v>3525</v>
       </c>
       <c r="CE278" s="1" t="s">
         <v>323</v>
       </c>
       <c r="CF278" s="1" t="s">
-        <v>3529</v>
+        <v>3526</v>
       </c>
       <c r="CH278" s="1" t="s">
-        <v>3530</v>
+        <v>3527</v>
       </c>
       <c r="CI278" s="1" t="s">
         <v>130</v>
@@ -62322,10 +62221,10 @@
         <v>88</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1315</v>
@@ -62340,7 +62239,7 @@
         <v>94</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1315</v>
@@ -62349,19 +62248,19 @@
         <v>92</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3531</v>
+        <v>3528</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>3532</v>
+        <v>3529</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3533</v>
+        <v>3530</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P279" s="1" t="s">
-        <v>3534</v>
+        <v>3531</v>
       </c>
       <c r="R279" s="1" t="s">
         <v>136</v>
@@ -62439,19 +62338,19 @@
         <v>23</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3535</v>
+        <v>3532</v>
       </c>
       <c r="BG279" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3536</v>
+        <v>3533</v>
       </c>
       <c r="BN279" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU279" s="1" t="s">
-        <v>3537</v>
+        <v>3534</v>
       </c>
       <c r="BV279" s="1" t="s">
         <v>122</v>
@@ -62469,16 +62368,16 @@
         <v>112</v>
       </c>
       <c r="CD279" s="1" t="s">
+        <v>3535</v>
+      </c>
+      <c r="CE279" s="1" t="s">
+        <v>3536</v>
+      </c>
+      <c r="CF279" s="1" t="s">
+        <v>3537</v>
+      </c>
+      <c r="CH279" s="1" t="s">
         <v>3538</v>
-      </c>
-      <c r="CE279" s="1" t="s">
-        <v>3539</v>
-      </c>
-      <c r="CF279" s="1" t="s">
-        <v>3540</v>
-      </c>
-      <c r="CH279" s="1" t="s">
-        <v>3541</v>
       </c>
       <c r="CI279" s="1" t="s">
         <v>130</v>
@@ -62492,10 +62391,10 @@
         <v>88</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1315</v>
@@ -62510,7 +62409,7 @@
         <v>94</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1315</v>
@@ -62519,19 +62418,19 @@
         <v>92</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3542</v>
+        <v>3539</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>3543</v>
+        <v>3540</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3544</v>
+        <v>3541</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P280" s="1" t="s">
-        <v>3545</v>
+        <v>3542</v>
       </c>
       <c r="Q280" s="3">
         <v>29466</v>
@@ -62612,19 +62511,19 @@
         <v>23</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3546</v>
+        <v>3543</v>
       </c>
       <c r="BG280" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3547</v>
+        <v>3544</v>
       </c>
       <c r="BN280" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU280" s="1" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="BV280" s="1" t="s">
         <v>122</v>
@@ -62642,16 +62541,16 @@
         <v>112</v>
       </c>
       <c r="CD280" s="1" t="s">
+        <v>3546</v>
+      </c>
+      <c r="CE280" s="1" t="s">
+        <v>3547</v>
+      </c>
+      <c r="CF280" s="1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="CH280" s="1" t="s">
         <v>3549</v>
-      </c>
-      <c r="CE280" s="1" t="s">
-        <v>3550</v>
-      </c>
-      <c r="CF280" s="1" t="s">
-        <v>3551</v>
-      </c>
-      <c r="CH280" s="1" t="s">
-        <v>3552</v>
       </c>
       <c r="CI280" s="1" t="s">
         <v>130</v>
@@ -62665,10 +62564,10 @@
         <v>88</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1315</v>
@@ -62683,7 +62582,7 @@
         <v>94</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1315</v>
@@ -62692,22 +62591,22 @@
         <v>92</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>3553</v>
+        <v>3550</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>3554</v>
+        <v>3551</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>3555</v>
+        <v>3552</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P281" s="1" t="s">
-        <v>3556</v>
+        <v>3553</v>
       </c>
       <c r="Q281" t="s">
-        <v>3557</v>
+        <v>3554</v>
       </c>
       <c r="R281" s="1" t="s">
         <v>136</v>
@@ -62749,7 +62648,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="AO281" s="1">
         <v>0</v>
@@ -62782,19 +62681,19 @@
         <v>23</v>
       </c>
       <c r="BD281" s="1" t="s">
-        <v>3558</v>
+        <v>3555</v>
       </c>
       <c r="BG281" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>3559</v>
+        <v>3556</v>
       </c>
       <c r="BN281" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU281" s="1" t="s">
-        <v>3560</v>
+        <v>3557</v>
       </c>
       <c r="BV281" s="1" t="s">
         <v>122</v>
@@ -62812,16 +62711,16 @@
         <v>112</v>
       </c>
       <c r="CD281" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="CE281" s="1" t="s">
+        <v>3559</v>
+      </c>
+      <c r="CF281" s="1" t="s">
+        <v>3560</v>
+      </c>
+      <c r="CH281" s="1" t="s">
         <v>3561</v>
-      </c>
-      <c r="CE281" s="1" t="s">
-        <v>3562</v>
-      </c>
-      <c r="CF281" s="1" t="s">
-        <v>3563</v>
-      </c>
-      <c r="CH281" s="1" t="s">
-        <v>3564</v>
       </c>
       <c r="CI281" s="1" t="s">
         <v>130</v>
@@ -62835,10 +62734,10 @@
         <v>88</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1315</v>
@@ -62853,7 +62752,7 @@
         <v>94</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1315</v>
@@ -62862,19 +62761,19 @@
         <v>92</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>3565</v>
+        <v>3562</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>3566</v>
+        <v>3563</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>3567</v>
+        <v>3564</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P282" s="1" t="s">
-        <v>3568</v>
+        <v>3565</v>
       </c>
       <c r="Q282" s="3">
         <v>15186</v>
@@ -62922,7 +62821,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="1" t="s">
-        <v>3569</v>
+        <v>3566</v>
       </c>
       <c r="AO282" s="1">
         <v>0</v>
@@ -62958,19 +62857,19 @@
         <v>23</v>
       </c>
       <c r="BD282" s="1" t="s">
-        <v>3570</v>
+        <v>3567</v>
       </c>
       <c r="BG282" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH282" s="1" t="s">
-        <v>3571</v>
+        <v>3568</v>
       </c>
       <c r="BN282" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU282" s="1" t="s">
-        <v>3572</v>
+        <v>3569</v>
       </c>
       <c r="BV282" s="1" t="s">
         <v>122</v>
@@ -62997,10 +62896,10 @@
         <v>1572</v>
       </c>
       <c r="CF282" s="1" t="s">
-        <v>3573</v>
+        <v>3570</v>
       </c>
       <c r="CH282" s="1" t="s">
-        <v>3574</v>
+        <v>3571</v>
       </c>
       <c r="CI282" s="1" t="s">
         <v>130</v>
@@ -63014,10 +62913,10 @@
         <v>88</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1315</v>
@@ -63032,7 +62931,7 @@
         <v>94</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>1315</v>
@@ -63041,10 +62940,10 @@
         <v>92</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>3494</v>
+        <v>3491</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>101</v>
@@ -63089,7 +62988,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="AO283" s="1">
         <v>0</v>
@@ -63125,7 +63024,7 @@
         <v>23</v>
       </c>
       <c r="BD283" s="1" t="s">
-        <v>3575</v>
+        <v>3572</v>
       </c>
       <c r="BN283" s="1" t="s">
         <v>118</v>
@@ -63149,7 +63048,7 @@
         <v>112</v>
       </c>
       <c r="CD283" s="1" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
       <c r="CH283" s="1" t="s">
         <v>130</v>
@@ -63166,10 +63065,10 @@
         <v>88</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1315</v>
@@ -63184,7 +63083,7 @@
         <v>94</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>1315</v>
@@ -63193,10 +63092,10 @@
         <v>92</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>3497</v>
+        <v>3494</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>101</v>
@@ -63241,7 +63140,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="AO284" s="1">
         <v>0</v>
@@ -63277,7 +63176,7 @@
         <v>23</v>
       </c>
       <c r="BD284" s="1" t="s">
-        <v>3576</v>
+        <v>3573</v>
       </c>
       <c r="BN284" s="1" t="s">
         <v>118</v>
@@ -63301,7 +63200,7 @@
         <v>112</v>
       </c>
       <c r="CD284" s="1" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
       <c r="CH284" s="1" t="s">
         <v>130</v>
@@ -63318,10 +63217,10 @@
         <v>88</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1315</v>
@@ -63336,7 +63235,7 @@
         <v>94</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>1315</v>
@@ -63345,10 +63244,10 @@
         <v>92</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>3506</v>
+        <v>3503</v>
       </c>
       <c r="O285" s="1" t="s">
         <v>101</v>
@@ -63393,7 +63292,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="AO285" s="1">
         <v>0</v>
@@ -63429,7 +63328,7 @@
         <v>23</v>
       </c>
       <c r="BD285" s="1" t="s">
-        <v>3577</v>
+        <v>3574</v>
       </c>
       <c r="BN285" s="1" t="s">
         <v>118</v>
@@ -63453,7 +63352,7 @@
         <v>112</v>
       </c>
       <c r="CD285" s="1" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
       <c r="CH285" s="1" t="s">
         <v>130</v>
@@ -63466,6 +63365,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CJ285" xr:uid="{E6F35492-D265-4618-B287-7717751711F6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>